--- a/output/node_energy_by_group.xlsx
+++ b/output/node_energy_by_group.xlsx
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1635897.153819921</v>
+        <v>67521.43261227707</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5559230.251278585</v>
+        <v>6323811.345872015</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20709448.91391977</v>
+        <v>13181700.26623813</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8832680.330191467</v>
+        <v>6384758.183899256</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>283709.8672314293</v>
+        <v>23630.93740629536</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -520,11 +520,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>527978.5211573255</v>
+        <v>4705.872614284799</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>330999.6483685673</v>
+        <v>3252447.056130978</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>866394.8824229671</v>
+        <v>10178363.61430663</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>361748.7189223368</v>
+        <v>2107012.96386357</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>906471.450514863</v>
+        <v>17022572.3203677</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3632227.837080932</v>
+        <v>2918737.405779793</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>259432.9681200488</v>
+        <v>11536678.682721</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4415460.22771045</v>
+        <v>707884.4226843927</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7315062.048999245</v>
+        <v>18358044.48572508</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10618212.8666575</v>
+        <v>3468755.82582833</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -650,11 +650,11 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>190955.9407670522</v>
+        <v>90529.67108441085</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>264330.1778994101</v>
+        <v>1344753.237814272</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>159537.002712793</v>
+        <v>4566015.928103009</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15165553.73772176</v>
+        <v>23136031.80658875</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2484291.078927996</v>
+        <v>2447062.624952083</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>296951.1209679109</v>
+        <v>2186371.447267521</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>38392.93367182708</v>
+        <v>594402.60967683</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6097944.893248682</v>
+        <v>17933379.19918042</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4927737.883736068</v>
+        <v>12517.2627426227</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -767,11 +767,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1825200.108277967</v>
+        <v>13230634.07551446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>25718116.86345323</v>
+        <v>23282658.30484425</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -793,11 +793,11 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>199326.2071217557</v>
+        <v>5755648.096886085</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>9801744.138715828</v>
+        <v>11884655.55921505</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>181321.6171363882</v>
+        <v>5815.450479011208</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>306325.2176172309</v>
+        <v>734220.00190079</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>18917319.54690111</v>
+        <v>15385818.02832578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>7416789.635197194</v>
+        <v>10420859.90324846</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>3783.831920520853</v>
+        <v>149151.4707606094</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>11091187.67505379</v>
+        <v>16028240.4300194</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1352470.509566065</v>
+        <v>1122037.867147441</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>751884.3987419159</v>
+        <v>40870.40585346078</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>560569.7501205617</v>
+        <v>1947295.0675606</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>32181454.1760782</v>
+        <v>26940411.24478768</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>76516.54130720231</v>
+        <v>2520640.851857886</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>41.45204833244546</v>
+        <v>1120068.173774495</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1950802.823144949</v>
+        <v>1706301.796674624</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1111646.836006516</v>
+        <v>7119199.95552298</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>47086.24110606175</v>
+        <v>51773.55696548478</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>14022.14141745052</v>
+        <v>108770.5361749604</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>4102065.041633221</v>
+        <v>6474818.360970936</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1548776.620763224</v>
+        <v>311568.3554417246</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>76058.49307911507</v>
+        <v>843680.6902836536</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>317684.0949273541</v>
+        <v>7618236.685610533</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1002066.547589267</v>
+        <v>230864.0226280454</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>91222.69700742108</v>
+        <v>7412659.281214485</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>9623078.868226744</v>
+        <v>13693675.08985281</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>113928.4456580833</v>
+        <v>3158299.852664995</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1131,11 +1131,11 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>710282.2833178518</v>
+        <v>8531996.584535094</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2608150.196586088</v>
+        <v>2032025.599731552</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>585483.7600943905</v>
+        <v>10005897.37060976</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>5107241.854554525</v>
+        <v>496962.425874504</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1848526.570515971</v>
+        <v>860461.0414561634</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>3432.917315914164</v>
+        <v>794016.4461334648</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>68898.91804553804</v>
+        <v>1438341.82768505</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1222,11 +1222,11 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>4036201.914831889</v>
+        <v>1011640.162192606</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1235,11 +1235,11 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>9153.245912743176</v>
+        <v>2422806.365939891</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>271280.7373333325</v>
+        <v>3968998.429643882</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>926.8360257193824</v>
+        <v>3362732.195201402</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>9499455.435408715</v>
+        <v>8966381.812293284</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>859334.6553776844</v>
+        <v>1548809.884893229</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1300,11 +1300,11 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>290198.9581921863</v>
+        <v>3549370.02442844</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>228750.7905109757</v>
+        <v>164714.8915046856</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>438865.9254980901</v>
+        <v>12204750.97634799</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>9706653.270893715</v>
+        <v>744740.4007518312</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1863278.291749734</v>
+        <v>12151615.87385657</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>153297.5138008484</v>
+        <v>1424743.448542579</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>18068183.20471915</v>
+        <v>18942372.21175256</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>12337034.706946</v>
+        <v>10139780.7005143</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>9370531.22904712</v>
+        <v>6576091.820855569</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>9293863.753267581</v>
+        <v>11984162.20130762</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>10904066.72276329</v>
+        <v>12234246.51146669</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>4746326.097368304</v>
+        <v>5906107.110698802</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2119799.957708849</v>
+        <v>7817107.024086292</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1934726.414019031</v>
+        <v>119254.6657185395</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1978098.25791086</v>
+        <v>4081674.108266979</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>753951.2469576828</v>
+        <v>2781259.781879144</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>3424894.250074907</v>
+        <v>1615576.5216896</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>7128362.463592876</v>
+        <v>1718571.655517368</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>5104.294475352689</v>
+        <v>1958435.889619869</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>662410.5211150597</v>
+        <v>718293.7640306465</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>89920.82146368924</v>
+        <v>3019746.656233476</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>5937762.698932111</v>
+        <v>4708029.545889</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>13520542.53877738</v>
+        <v>12127312.30220132</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1575398.775340085</v>
+        <v>2544027.246199744</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>13609.54516737929</v>
+        <v>442809.1949364948</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>2974161.139775097</v>
+        <v>5530017.609649472</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>9592871.926626829</v>
+        <v>8125596.808349889</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>4707478.657123862</v>
+        <v>8725480.988929415</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1721358.071597853</v>
+        <v>1860369.115426687</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>925337.4977044072</v>
+        <v>660047.7531138359</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>3773630.31245891</v>
+        <v>491927.2761807318</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>808802.9885240379</v>
+        <v>313382.9462955263</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>6896961.790479183</v>
+        <v>12225507.99551474</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>11681712.33537838</v>
+        <v>19266642.39840209</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>8402167.930053424</v>
+        <v>8392334.169965891</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>15654958.09852739</v>
+        <v>11088035.90889585</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>2412919.337878692</v>
+        <v>518020.438266844</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1842183.536238228</v>
+        <v>121161.0779859428</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>5339341.795013987</v>
+        <v>6635094.513305899</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>28213696.56814927</v>
+        <v>23647748.63836503</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1820,11 +1820,11 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>733350.7762671196</v>
+        <v>2169724.027396139</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>520046.3130863642</v>
+        <v>2813418.386080726</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1846,11 +1846,11 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>6944275.960816564</v>
+        <v>2994424.706221391</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>8396323.576856164</v>
+        <v>691738.5459746363</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1646496.390165922</v>
+        <v>5413923.83011437</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>4911716.613795256</v>
+        <v>4832574.187917152</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1456358.023436154</v>
+        <v>165923.3080206645</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>7660234.659455582</v>
+        <v>8940.951799161539</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>19443705.76793742</v>
+        <v>21653558.9975906</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>5749820.194668701</v>
+        <v>6180351.632810771</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>4581124.410897866</v>
+        <v>13151717.472216</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -1963,11 +1963,11 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>2548205.78031189</v>
+        <v>11287371.28403102</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>2314014.475504796</v>
+        <v>8283629.525428683</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>4523033.944657588</v>
+        <v>4872936.607850192</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2002,11 +2002,11 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>18110.15280642417</v>
+        <v>28805277.738626</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>24399.135136321</v>
+        <v>7555.433532641322</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>5234385.236756768</v>
+        <v>11441364.96362944</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1621199.452039697</v>
+        <v>1263771.468549989</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>17100974.00949397</v>
+        <v>14930566.21900955</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>21323853.89080205</v>
+        <v>23003097.44220022</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>22113129.4974501</v>
+        <v>23809223.04456377</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>15986.39482064794</v>
+        <v>14780657.41607483</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>30447857.9104364</v>
+        <v>25051769.77872304</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>698362.6501085631</v>
+        <v>6999153.996666722</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2132,11 +2132,11 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>7598438.308122568</v>
+        <v>22809418.10316344</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>13523743.0032877</v>
+        <v>17925000.36653833</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>9457970.356431607</v>
+        <v>12888746.53534034</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1627163.670904088</v>
+        <v>1746006.162199498</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>12697475.1101814</v>
+        <v>13176135.93656332</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2197,11 +2197,11 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>4778454.199124099</v>
+        <v>9179342.289426761</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1296111.080389361</v>
+        <v>329843.8339393375</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>2519350.909037639</v>
+        <v>2372625.419598244</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>6188981.609817843</v>
+        <v>8037443.667692311</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>3599216.526621256</v>
+        <v>12101068.02952222</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>310801.1860586143</v>
+        <v>15192.13801182896</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>9964692.07221045</v>
+        <v>21828738.18215047</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>61652.81031093672</v>
+        <v>2474409.548369076</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>68498.93380444175</v>
+        <v>25089.23509167349</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>335461.746956219</v>
+        <v>4794365.681773502</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>11813.03613458979</v>
+        <v>82818.5918569916</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2453176.485640093</v>
+        <v>4026706.3347885</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>139568.1397815481</v>
+        <v>117106.8144883416</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>39510.78238435856</v>
+        <v>5179982.383808585</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>3000370.147499353</v>
+        <v>6231951.781360784</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>2944383.978217037</v>
+        <v>462304.7006270362</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>76369.56641270476</v>
+        <v>5532467.754042231</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>32486.41411064544</v>
+        <v>11351736.25155345</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>2546183.025447819</v>
+        <v>17573.79561597994</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>5838076.132072739</v>
+        <v>7123303.019892467</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2457,11 +2457,11 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>267653.537939724</v>
+        <v>16932067.56433558</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>65311.65013886608</v>
+        <v>3170989.542827097</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1668885.385964082</v>
+        <v>893254.2364572529</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>4298627.55896464</v>
+        <v>3413721.163275673</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2509,11 +2509,11 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>505124.6140285506</v>
+        <v>8745103.968286831</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>273703.4359637555</v>
+        <v>1053065.928875842</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>2167388.927040689</v>
+        <v>2107288.959277884</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>91870.39198585016</v>
+        <v>2027852.749405682</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>3059.266320976524</v>
+        <v>120542.5020282744</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>709569.2257956215</v>
+        <v>721139.9554200782</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>3963587.075513669</v>
+        <v>5214579.82554161</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>165362.5155473457</v>
+        <v>118975.0881686394</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>19148060.71749885</v>
+        <v>9055627.551851911</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>41333.7253694579</v>
+        <v>2067110.871280278</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2639,11 +2639,11 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>407846.9280551843</v>
+        <v>652432.953608321</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>451240.2867411232</v>
+        <v>2626011.791680856</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -2665,11 +2665,11 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>24994.18053197189</v>
+        <v>13286117.28200018</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2678,11 +2678,11 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>2265468.626890028</v>
+        <v>1169590.789365359</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2691,11 +2691,11 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>181817.7544809017</v>
+        <v>13931162.32515881</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2704,11 +2704,11 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>5004131.406499332</v>
+        <v>5262532.898384905</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2717,11 +2717,11 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1838510.664784754</v>
+        <v>17868714.21464744</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>11895851.75045564</v>
+        <v>7295519.373536767</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>634281.108035552</v>
+        <v>415091.6257204262</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>325573.2354736112</v>
+        <v>4480787.875454983</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>236862.2067818824</v>
+        <v>987685.6245462979</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>387977.2750342889</v>
+        <v>553249.9400738257</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>271461.5596833923</v>
+        <v>483412.4603546976</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>863688.5627658617</v>
+        <v>6130686.626065262</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>21587215.2260305</v>
+        <v>22276021.14607407</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>4345802.412057096</v>
+        <v>10581575.84859547</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>13098821.24850744</v>
+        <v>20856759.7350993</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>10238.33516748427</v>
+        <v>3041458.89404834</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>11612547.38083306</v>
+        <v>23544461.51680148</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>119731.6179986421</v>
+        <v>686313.857907149</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>196361.6451614505</v>
+        <v>706932.7731031488</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>3171742.867425572</v>
+        <v>661827.6389882774</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -2925,11 +2925,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>17628.46179596196</v>
+        <v>160425.4814467676</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>10840011.09789467</v>
+        <v>9154736.34415067</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>554306.6979027181</v>
+        <v>2990511.657606207</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -2964,11 +2964,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1272410.889635595</v>
+        <v>3194163.903384651</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>2155162.163588427</v>
+        <v>8062.384642845438</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>131012.9491741194</v>
+        <v>240749.8197570004</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3003,11 +3003,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1733355.633491289</v>
+        <v>1220015.270768143</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>379004.1459756884</v>
+        <v>2248179.370953948</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>16234.10473654362</v>
+        <v>61534.24049928832</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>26812164.35470644</v>
+        <v>24331192.1364766</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>19201132.50465325</v>
+        <v>17083548.2251809</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>2888935.878022565</v>
+        <v>3094230.765129233</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>3418013.412021198</v>
+        <v>5170990.709794644</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>5692322.992862169</v>
+        <v>7750251.380927966</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>23066819.42835941</v>
+        <v>21401897.07252393</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>14835406.88028201</v>
+        <v>16227386.6440453</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>11046887.87124302</v>
+        <v>9840698.11377177</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>879043.7656270465</v>
+        <v>283954.3469559629</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>536774.9219555296</v>
+        <v>3150836.584143336</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>366224.9095071962</v>
+        <v>93598.24476822006</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>12864744.43627762</v>
+        <v>5193738.336956312</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>14235316.67254274</v>
+        <v>14421977.59837949</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>576882.1829618792</v>
+        <v>404486.4753139697</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>7716.505569113493</v>
+        <v>709634.1871688984</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>3892048.730659831</v>
+        <v>8110892.012257851</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>131149.7056113647</v>
+        <v>49629.36026213483</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3263,11 +3263,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>5760649.483474487</v>
+        <v>1600081.172507874</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>278.4999009731194</v>
+        <v>1069659.424865669</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>380763.7371142864</v>
+        <v>192125.7974700248</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>586457.878443379</v>
+        <v>201627.34507594</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>7342111.19348056</v>
+        <v>1004689.173765581</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>99701.68445396869</v>
+        <v>2678343.102215552</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>519918.7216444945</v>
+        <v>247708.1776588775</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>3203833.875912079</v>
+        <v>3987547.749145833</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>1227271.703140856</v>
+        <v>443929.7586309433</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>60246.70644282495</v>
+        <v>171292.5095122054</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>31342337.13651475</v>
+        <v>28043351.4016838</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>1096437.022492082</v>
+        <v>6761832.222652928</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>245085.7168686088</v>
+        <v>165691.4653561877</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>4732919.361538248</v>
+        <v>7736010.047813655</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>27862.05193842031</v>
+        <v>2062401.558170997</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>10028390.06555839</v>
+        <v>13709001.50999857</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>12170067.90684219</v>
+        <v>14965850.49757553</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>11228298.36511199</v>
+        <v>15297264.54251422</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>2438137.805118047</v>
+        <v>11206751.50839979</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>449675.9405126925</v>
+        <v>4947697.859380673</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>6699091.258285405</v>
+        <v>11503482.93156575</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>8620468.98632038</v>
+        <v>9148815.412836691</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>30735612.64330734</v>
+        <v>27022747.40885651</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>10325646.30023802</v>
+        <v>12447129.61820239</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>43673.8470805544</v>
+        <v>5012193.252230203</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>4836617.750157706</v>
+        <v>18650816.63896913</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>12924414.17116231</v>
+        <v>17289831.22726679</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>12646308.83234706</v>
+        <v>21338214.59633387</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>6038088.09298105</v>
+        <v>16380078.16527433</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>4925173.277077071</v>
+        <v>7242967.007917495</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>7465045.513306328</v>
+        <v>31374077.10150182</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>133412.1653433827</v>
+        <v>140748.6634500154</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>9886185.157511173</v>
+        <v>25907455.44399384</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>26212344.40461592</v>
+        <v>25804889.89267819</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>15142174.28828462</v>
+        <v>25634297.94810545</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>16974.00975228157</v>
+        <v>31818.58462716677</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>3840302.951204436</v>
+        <v>18398199.13996374</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>7146404.948599312</v>
+        <v>14559423.25666054</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>635413.372723948</v>
+        <v>4902197.836425748</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>175777.1098022293</v>
+        <v>148460.6405002678</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>23055480.56784103</v>
+        <v>25425255.43764403</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>17622099.40450423</v>
+        <v>21909385.69125878</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>2041238.368472966</v>
+        <v>1051002.976637789</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>21855.74690147349</v>
+        <v>17098370.06776768</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3835,11 +3835,11 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>78881.48241051717</v>
+        <v>231508.5753156734</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3848,11 +3848,11 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>44528.55376977229</v>
+        <v>2755005.924217704</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3861,11 +3861,11 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>997812.2242027876</v>
+        <v>10000106.47223197</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>3338922.195978674</v>
+        <v>1764857.864400544</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>7749201.441930389</v>
+        <v>1810992.490366834</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>2042031.703256954</v>
+        <v>2327655.702766504</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -3913,11 +3913,11 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>104392.6426685542</v>
+        <v>13792972.84809264</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>2234687.844513926</v>
+        <v>2283521.695201707</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>25657.28112866996</v>
+        <v>8652529.81631783</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>1646693.965819478</v>
+        <v>3253281.035462463</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>1588101.45439253</v>
+        <v>6022257.379286319</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>562951.8738811872</v>
+        <v>970112.2643971489</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>5336469.98331858</v>
+        <v>138177.967720836</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>3233961.163287965</v>
+        <v>13239903.2676554</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>22330841.3120233</v>
+        <v>20678783.68019681</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>4530723.848012102</v>
+        <v>135381.24454929</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>11322256.95824101</v>
+        <v>13359484.1459699</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>4800761.417886945</v>
+        <v>7857549.224868413</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>2038264.161671492</v>
+        <v>2990902.353848285</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>39073.18571433451</v>
+        <v>716328.149917142</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>7324925.126130559</v>
+        <v>8879272.723691909</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>7735714.558503384</v>
+        <v>9305302.503859928</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>6209631.859111786</v>
+        <v>8015869.992290166</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>1530539.624647298</v>
+        <v>1597720.463618031</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>1338245.084126497</v>
+        <v>2023100.636428452</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>5422821.233158226</v>
+        <v>6307561.313594769</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>4228156.613013232</v>
+        <v>5874225.85299903</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>7610128.473927078</v>
+        <v>7611578.123312715</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>1507060.713809412</v>
+        <v>2231661.394352905</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>17886979.62999424</v>
+        <v>14721014.8005997</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>6728308.168893596</v>
+        <v>15251693.93023541</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>5499949.643595445</v>
+        <v>9341137.599649981</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>7298600.832743949</v>
+        <v>11486498.13382427</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4264,11 +4264,11 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>676124.6926898488</v>
+        <v>905563.2667187916</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>1755832.215210657</v>
+        <v>11511923.56145704</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4290,11 +4290,11 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>32832.82496249861</v>
+        <v>15193548.08551115</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>2611.619868838364</v>
+        <v>847334.3373980145</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>17337.30719174219</v>
+        <v>1269283.306213877</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>2715088.172094177</v>
+        <v>1021989.750653552</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>3528062.451156097</v>
+        <v>1354053.187025497</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -4355,11 +4355,11 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>3701290.791267358</v>
+        <v>17325827.74379709</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>3666336.463302163</v>
+        <v>2918034.635028435</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>16271064.11212038</v>
+        <v>13053699.74128427</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>1757186.058550852</v>
+        <v>107901.5444305478</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>915372.2940114004</v>
+        <v>4426548.541867828</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>4288965.871144894</v>
+        <v>11108607.35154315</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>20315788.79427268</v>
+        <v>23136705.08864817</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>25813059.61466113</v>
+        <v>24878215.68510596</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>140469.5270358401</v>
+        <v>1022.665365922819</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>2716656.103041576</v>
+        <v>3098171.764970802</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>3498871.88067428</v>
+        <v>15662293.23968307</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>12124150.5921092</v>
+        <v>14237459.81583209</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>1431385.76310098</v>
+        <v>592261.0939361141</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>2887461.504465367</v>
+        <v>265066.4129554573</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>893816.511138079</v>
+        <v>9612678.720711401</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>3068682.144663974</v>
+        <v>1203250.704249514</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>14793.30721633706</v>
+        <v>5627713.32326704</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>12714.30033151984</v>
+        <v>1406079.473129704</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>2377204.142854887</v>
+        <v>5774375.445452531</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -4602,11 +4602,11 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>78525.34824016958</v>
+        <v>658521.0519615465</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4615,11 +4615,11 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>2260025.274098183</v>
+        <v>1677892.042625491</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>2323174.680178526</v>
+        <v>146574.6858137874</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>52435.02934464982</v>
+        <v>20351632.04394788</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -4654,11 +4654,11 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>698491.9864572391</v>
+        <v>6260715.21102096</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>136756.7324334892</v>
+        <v>1024137.139111275</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>4783055.295609852</v>
+        <v>8159827.460362267</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>21005.75136939248</v>
+        <v>419915.7745506404</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>6063692.237335123</v>
+        <v>4436203.001821483</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -4719,11 +4719,11 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>1523227.665271135</v>
+        <v>457680.1469048498</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>99513.20046734292</v>
+        <v>1994200.525402918</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -4745,11 +4745,11 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>2147107.020784743</v>
+        <v>6023934.821950465</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>2867281.084970169</v>
+        <v>11441836.06846776</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>5651307.095224421</v>
+        <v>182079.4829930218</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>5826770.984875494</v>
+        <v>13125500.34260192</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>5150962.015172958</v>
+        <v>45378.05074287356</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>465376.4783412338</v>
+        <v>3020506.226156222</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>14247731.9707982</v>
+        <v>8639359.003271285</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>1073259.008668547</v>
+        <v>5067006.450275821</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>13317467.05909756</v>
+        <v>13321109.87423605</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>26780419.49210702</v>
+        <v>24932212.06265845</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>4286884.382344024</v>
+        <v>6622092.701392295</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -4888,11 +4888,11 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>6374194.623434937</v>
+        <v>2765673.745067138</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4901,11 +4901,11 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>379922.7583942688</v>
+        <v>9081447.135705056</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>343917.5929126508</v>
+        <v>5752041.629847446</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>16044891.95830576</v>
+        <v>12761193.219306</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>2913148.967139998</v>
+        <v>201679.090918632</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>13603463.81640383</v>
+        <v>13129101.71547861</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>2161576.33533906</v>
+        <v>75061.19230468452</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>1990904.033770898</v>
+        <v>1641169.697198229</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>9299497.107431386</v>
+        <v>9603905.65313226</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>5110669.026328251</v>
+        <v>6312821.836563249</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>60778.54603955681</v>
+        <v>895424.9188798964</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>543408.6138136621</v>
+        <v>614441.5024397997</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>19043490.44930913</v>
+        <v>18467757.71726233</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>150918.675499821</v>
+        <v>25558.25673614182</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>473644.0149532233</v>
+        <v>87353.16381013909</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>192128.5626653666</v>
+        <v>423068.9375536363</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>18188240.34287603</v>
+        <v>17785286.16859715</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>19741258.19541642</v>
+        <v>19390078.28624951</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>1042537.437461817</v>
+        <v>694601.6866941958</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>378467.5058063272</v>
+        <v>39605.30526956257</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>30888319.4638568</v>
+        <v>27927095.75993213</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>5793079.89480629</v>
+        <v>6410423.877773296</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>16246.31421936635</v>
+        <v>23674.22840870749</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>7602248.469392884</v>
+        <v>3795112.761643605</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>6016394.526873353</v>
+        <v>1633155.683140062</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>2958707.172414715</v>
+        <v>4584481.010661744</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>1755874.009524257</v>
+        <v>6647728.686240065</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>11779162.83865673</v>
+        <v>13115224.75441777</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>20796.84654571641</v>
+        <v>82067.2436213536</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>240775.6629136836</v>
+        <v>606762.0553786026</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>5319430.57127141</v>
+        <v>6580424.354111342</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>57533.74369959033</v>
+        <v>94750.75916739579</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>1187813.272096029</v>
+        <v>3282168.338960175</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>587947.4209551557</v>
+        <v>2810354.542450693</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>1019593.225747822</v>
+        <v>393971.5595982212</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>176840.9818310421</v>
+        <v>351353.1527801439</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>221287.1220478012</v>
+        <v>1038191.741016308</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>18136550.42580846</v>
+        <v>10817838.3018765</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>762945.3007797848</v>
+        <v>271704.7622919355</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>1278599.390407968</v>
+        <v>23072.50308488652</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>1769.317559469704</v>
+        <v>132422.9518011713</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -5421,11 +5421,11 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>77814.33207738449</v>
+        <v>1565390.057886585</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>2926303.293931345</v>
+        <v>7353535.351611087</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>1124940.823434051</v>
+        <v>942718.8229496372</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>171165.8696039598</v>
+        <v>373801.0847473238</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1069501.5133597</v>
+        <v>1040520.533804543</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -5486,11 +5486,11 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>4504149.520648504</v>
+        <v>498606.6804425126</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5499,11 +5499,11 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>415426.6134337708</v>
+        <v>928942.0967585944</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5512,11 +5512,11 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>898868.4237153188</v>
+        <v>1940753.231729888</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>882296.9410096253</v>
+        <v>3482631.56018263</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>9765.011649605543</v>
+        <v>1263178.423889968</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -5551,11 +5551,11 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>43415.0464784777</v>
+        <v>15937139.10983218</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>6831897.905149463</v>
+        <v>16127538.27715082</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>2012970.244204603</v>
+        <v>1350863.054535718</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>551365.3345206908</v>
+        <v>10481689.5424186</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>1592907.381357165</v>
+        <v>860817.5751663786</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>4192687.280703845</v>
+        <v>6836701.069713171</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -5629,11 +5629,11 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>3608.08420707246</v>
+        <v>21970033.88094691</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>12438667.09522287</v>
+        <v>20185634.39089588</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>2736041.773840693</v>
+        <v>18228233.47601368</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>237535.5295526166</v>
+        <v>2361753.057664533</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -5681,11 +5681,11 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>258605.0361872356</v>
+        <v>4296404.90278255</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5694,7 +5694,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>8176583.114031791</v>
+        <v>14465548.23553926</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>433282.998265732</v>
+        <v>6202801.710928818</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>99871.72167684176</v>
+        <v>264516.1584525459</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -5733,11 +5733,11 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>113306.7245211423</v>
+        <v>65064.10821621172</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>266917.9863732714</v>
+        <v>885317.8069465413</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>70518.87058360587</v>
+        <v>11276667.4900516</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>892007.1576258249</v>
+        <v>1238.36646588474</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>73401.7959718824</v>
+        <v>117326.8436100241</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>718.3575322216832</v>
+        <v>428488.1082885109</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>4296750.334008764</v>
+        <v>573360.3633953767</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>2780.742582437633</v>
+        <v>1105469.025437872</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -5837,11 +5837,11 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>1595427.985629436</v>
+        <v>5918.476344850586</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>1626889.470974695</v>
+        <v>213494.0719300168</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>178875.6372960889</v>
+        <v>1800613.90045524</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>342034.8931445462</v>
+        <v>1079510.620633782</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>1190052.563178887</v>
+        <v>14933995.84841615</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>30957585.96087806</v>
+        <v>28951933.42894826</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>1899912.79412939</v>
+        <v>881759.3491576188</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>2053961.989175698</v>
+        <v>531715.0220829322</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>6924410.999342904</v>
+        <v>5552703.142470352</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>1390799.083854193</v>
+        <v>387265.7119495547</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>14798.48736424233</v>
+        <v>716955.0118611709</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>39633.15603227895</v>
+        <v>5382902.831626719</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>20586171.98553197</v>
+        <v>29371082.98630323</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1488339.401222361</v>
+        <v>364735.4873476472</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>1915222.847570727</v>
+        <v>1262438.676387152</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>4661717.683024559</v>
+        <v>404358.1237791452</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>34354.86654308433</v>
+        <v>456913.7010766919</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -6058,11 +6058,11 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>289892.2545128589</v>
+        <v>6077267.981170867</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>13640474.91677416</v>
+        <v>11479494.91531785</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>815028.0863573602</v>
+        <v>1618169.938715016</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>525.7960595237229</v>
+        <v>736938.8056655714</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>2801765.136006258</v>
+        <v>6414352.895040899</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>25050.85641251436</v>
+        <v>43421.98114796351</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>704673.5026560514</v>
+        <v>398726.0787990578</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>4257999.919786481</v>
+        <v>7933640.354640119</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>47923.02275144571</v>
+        <v>6772716.892907629</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>5437904.629818231</v>
+        <v>529710.2985645239</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>2074653.449445581</v>
+        <v>4648321.493672867</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>886707.9361830381</v>
+        <v>123953.8629043463</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -6214,11 +6214,11 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>19162.29633909545</v>
+        <v>9031603.726357523</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1944719.756904047</v>
+        <v>1429019.442346651</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>2472710.726748189</v>
+        <v>3130621.963018288</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>25368535.51220445</v>
+        <v>23549609.42672993</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1937460.132155684</v>
+        <v>8203195.21415755</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>548053.7227461489</v>
+        <v>335765.2061644598</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>962731.7070370672</v>
+        <v>6092804.332236206</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -6305,11 +6305,11 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>933408.7007690016</v>
+        <v>13390226.98160401</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1762287.349226317</v>
+        <v>1843145.902860401</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -6331,11 +6331,11 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>976868.2760032896</v>
+        <v>235707.1877199707</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>3687791.794916467</v>
+        <v>3904081.692254386</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>20403.49543659353</v>
+        <v>945883.1842826244</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>2274183.118842817</v>
+        <v>214326.7220050276</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>420.3741512710336</v>
+        <v>262058.5258729998</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -6396,11 +6396,11 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>23571.76253331808</v>
+        <v>7417.522122667777</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>350330.0211672307</v>
+        <v>22195.19181382731</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>6581462.457829672</v>
+        <v>5687297.830793813</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>548561.5737827003</v>
+        <v>278958.7018968994</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>6699.901164484851</v>
+        <v>471.8503968944028</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>36478.18256080706</v>
+        <v>232028.4745205249</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>725833.9398017512</v>
+        <v>7418431.675771169</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>257400.167474892</v>
+        <v>190431.9715760228</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>430.3273971380331</v>
+        <v>413994.693387309</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>95593.47724189702</v>
+        <v>3571067.742584924</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>1389727.524226295</v>
+        <v>5259909.703842589</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>19980.58555661945</v>
+        <v>2293211.282227911</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>877527.3846553302</v>
+        <v>954605.4491600296</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -6565,11 +6565,11 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1103588.620171548</v>
+        <v>2224.79055763843</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>109382.3889501626</v>
+        <v>1098692.423405383</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -6591,11 +6591,11 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>122.0550147644013</v>
+        <v>12401741.76520916</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6604,11 +6604,11 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>70265.04776099024</v>
+        <v>5774348.984019322</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>1217274.102623562</v>
+        <v>1720811.320473687</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>624381.3287083363</v>
+        <v>7971.831406357754</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>7930612.970848631</v>
+        <v>9095653.595710844</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>5049559.561767408</v>
+        <v>13906205.87438851</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>27636486.14168344</v>
+        <v>22195787.99011546</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>9751004.293933723</v>
+        <v>8011890.167811433</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>9810355.07103296</v>
+        <v>5560668.195433999</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>434.7569487151328</v>
+        <v>15328913.91805628</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>3803719.84426366</v>
+        <v>5142565.157660076</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>470484.4434638712</v>
+        <v>8433894.253628979</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>5485461.630840985</v>
+        <v>12371396.40884036</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>14518300.69888062</v>
+        <v>11232838.46770874</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>7058328.733451145</v>
+        <v>574674.2410963677</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>6125789.926047495</v>
+        <v>3556594.410262729</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>10432373.12393248</v>
+        <v>14750273.00146616</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>13666225.58861689</v>
+        <v>7582958.627432837</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>2339122.73279876</v>
+        <v>408832.7009416128</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>9346696.555063564</v>
+        <v>9363828.444665153</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>1806163.004191605</v>
+        <v>5557399.790566693</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -6864,11 +6864,11 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>324171.2364162587</v>
+        <v>5139537.303274572</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>122223.4179847498</v>
+        <v>245611.8909111176</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>1114018.314228393</v>
+        <v>4496378.256788542</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>144848.5797758203</v>
+        <v>2656686.133839294</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>348044.7589898465</v>
+        <v>2709300.121300966</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>465462.0034582602</v>
+        <v>1716271.226457999</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>110084.4056172572</v>
+        <v>1013091.954720613</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>585560.4557974383</v>
+        <v>3277805.584874739</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>2474210.106926654</v>
+        <v>212514.627528251</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>112702.763227123</v>
+        <v>942310.5723638166</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>7525843.180825712</v>
+        <v>12266219.08647948</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>4556.23679590755</v>
+        <v>175383.8989567175</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>4890333.469315212</v>
+        <v>2970317.682756404</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>5071527.896956446</v>
+        <v>14335761.40126505</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>2504715.497717463</v>
+        <v>2191140.255286138</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>733332.2157346157</v>
+        <v>5492023.589649552</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>1824120.128034298</v>
+        <v>39086.23652818908</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>7058261.499597167</v>
+        <v>5290278.500035916</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>1964383.63082381</v>
+        <v>2786066.901112165</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>2669005.835785276</v>
+        <v>4679657.478967884</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>12775321.37035362</v>
+        <v>20223630.9244421</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>9737536.528773692</v>
+        <v>12074619.76151227</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>2110386.193221691</v>
+        <v>1625203.412450306</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>5425679.804998916</v>
+        <v>5718381.648984801</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>15871599.57111648</v>
+        <v>19217864.51617739</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>13589104.54131548</v>
+        <v>12188588.21652058</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>12246960.01432749</v>
+        <v>18826731.02170176</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>11126435.6314291</v>
+        <v>5771279.680298102</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>4743293.644433375</v>
+        <v>9607334.191722982</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>4158127.646203346</v>
+        <v>6780812.359089638</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>2940126.752275901</v>
+        <v>369086.7144717405</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>4848818.926381718</v>
+        <v>5651765.204127988</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>5490070.692206947</v>
+        <v>6891818.905150935</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>1144745.458935084</v>
+        <v>4473769.549068172</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>12154235.14729878</v>
+        <v>14133398.44901255</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>3328700.220673352</v>
+        <v>422208.6704015734</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>14738404.94715905</v>
+        <v>16429342.11457282</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>10645717.44530929</v>
+        <v>17940281.0879896</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>8018467.559140533</v>
+        <v>4063201.943750031</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>868386.5047969063</v>
+        <v>83033.47866550312</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>7053763.232047687</v>
+        <v>9996447.617191777</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>6635211.941246497</v>
+        <v>8444810.560002539</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>116726.9275187621</v>
+        <v>62721.02687571335</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>73039.39200547352</v>
+        <v>1001126.84801919</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>8227971.671251956</v>
+        <v>2547724.814685671</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1654304.221127182</v>
+        <v>3784968.037405175</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>26092501.66273957</v>
+        <v>25620851.6745266</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>651486.3559503668</v>
+        <v>4270461.720453614</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1243321.782276399</v>
+        <v>5001437.968755778</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>23642636.27697221</v>
+        <v>23119088.74025832</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>19725558.92943932</v>
+        <v>17815291.18507601</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>1955796.42130784</v>
+        <v>795588.6540240335</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>69261.05365805086</v>
+        <v>533040.1964357415</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -7553,11 +7553,11 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>101744.1351617954</v>
+        <v>20487.5287082426</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>2739771.328878908</v>
+        <v>4303776.409614835</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>3324795.031241735</v>
+        <v>637289.1793126719</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>899125.4696626902</v>
+        <v>44251.3571359069</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>5315698.195093779</v>
+        <v>2702313.522305936</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>119815.438438411</v>
+        <v>20247.99564994129</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>56944.11000814299</v>
+        <v>205069.5691992292</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>3654670.055015944</v>
+        <v>5629493.615787995</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>17399453.51849425</v>
+        <v>11437259.50579425</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>272904.2168373619</v>
+        <v>2101103.348838132</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>115296.170299065</v>
+        <v>344537.8492848852</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>1176.455046424398</v>
+        <v>953648.7588192292</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>9484653.573375709</v>
+        <v>8667451.852863077</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>12074404.24327519</v>
+        <v>12051990.36796068</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>954616.335227226</v>
+        <v>2231953.258517521</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>44945.61142913573</v>
+        <v>1007743.627690074</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>2999742.932272297</v>
+        <v>4362209.572973931</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>18347668.66844894</v>
+        <v>16827169.12697387</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>7202269.300006833</v>
+        <v>9902409.139894856</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>5127407.114041644</v>
+        <v>7845950.592229849</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>646389.2821871506</v>
+        <v>1826315.144707799</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>942821.4127683458</v>
+        <v>1090983.181383758</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>4169252.043710205</v>
+        <v>2975.199365454775</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>323358.898990839</v>
+        <v>2544667.667406888</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>490241.1698107325</v>
+        <v>904599.6316328964</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>4245970.967119643</v>
+        <v>6072032.727029797</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>9935460.513675872</v>
+        <v>12277613.7424598</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>3345995.821923656</v>
+        <v>881054.0688423919</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>932429.510703451</v>
+        <v>72699.97704301661</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>821067.9059032515</v>
+        <v>63697.20138785471</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>8043.352343971561</v>
+        <v>17278.73730636642</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>23156.81779044629</v>
+        <v>4068951.053852357</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>356466.6515154555</v>
+        <v>1192088.080312285</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>7203356.542178771</v>
+        <v>5132246.806023209</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>9134418.72402833</v>
+        <v>10304611.16965465</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>812393.873961199</v>
+        <v>108938.6754669564</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>5411389.207874911</v>
+        <v>8655999.112924095</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1028536.712130962</v>
+        <v>2907512.028552131</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>34053.93693200313</v>
+        <v>112444.7827683074</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>4110208.491851313</v>
+        <v>3289647.758074957</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>8369249.766177461</v>
+        <v>13356047.69514364</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>5574756.992423184</v>
+        <v>13986787.12795466</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1334135.903030674</v>
+        <v>911017.57670599</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>19306376.77740474</v>
+        <v>22161404.35636855</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>289057.4595364359</v>
+        <v>4950648.399018941</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>62.63106319164098</v>
+        <v>7334.025594753159</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>22609159.66129488</v>
+        <v>19234251.99245016</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>3038417.780113828</v>
+        <v>65921.41690124301</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -8177,11 +8177,11 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1830665.965633756</v>
+        <v>780477.9586244876</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>604002.5200632617</v>
+        <v>351163.4737737323</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>537074.0539048105</v>
+        <v>1597673.568532439</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>11964386.82491525</v>
+        <v>17004820.49886567</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>74031.24982568511</v>
+        <v>3217382.109476573</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>6244923.500298449</v>
+        <v>13834387.98563829</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>767672.8951418312</v>
+        <v>99182.56787235881</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>5328716.236946619</v>
+        <v>11275914.00213917</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>26887399.72121361</v>
+        <v>24276231.68947705</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>3021571.934835769</v>
+        <v>3469649.904751618</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>2572860.716176901</v>
+        <v>754067.8486097639</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>13362032.41591254</v>
+        <v>13346615.91777354</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>43879.50334875483</v>
+        <v>1008047.364073608</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>90828.22491906025</v>
+        <v>158970.1266065175</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -8359,11 +8359,11 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>971811.087957872</v>
+        <v>11174052.70887091</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1554102.411444409</v>
+        <v>3600630.662535358</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>847466.3941654949</v>
+        <v>1180689.539802872</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>297652.9149891363</v>
+        <v>3819632.284898591</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>21286.54254889736</v>
+        <v>599467.1527406346</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>3263087.0110296</v>
+        <v>3552738.506212072</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>8954411.549152683</v>
+        <v>18117885.61677732</v>
       </c>
       <c r="C616" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>10037880.15097032</v>
+        <v>15222855.89451039</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>2647884.648538468</v>
+        <v>10094160.40364669</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>1448110.848285559</v>
+        <v>12677847.04464396</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>19286769.30326788</v>
+        <v>22211147.32520551</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>137578.6443939662</v>
+        <v>4392652.146585332</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>283845.3884656772</v>
+        <v>1144060.782169804</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
@@ -8528,11 +8528,11 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>2565110.38298709</v>
+        <v>153607.779960634</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>3562270.336519533</v>
+        <v>5930124.05101689</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>3914991.580861365</v>
+        <v>3397811.262160629</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
@@ -8567,11 +8567,11 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>4098590.642717526</v>
+        <v>2713305.187510473</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -8580,7 +8580,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1420772.732809336</v>
+        <v>901844.584205496</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>14352969.34494048</v>
+        <v>4150258.966293547</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>6360224.790660921</v>
+        <v>10082880.78353095</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>20322056.94689414</v>
+        <v>21170103.74410082</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>4717617.323401279</v>
+        <v>10741633.9369374</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>4248549.324658761</v>
+        <v>6395894.154543651</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>5736753.103102207</v>
+        <v>10618044.61447943</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>1660624.189056745</v>
+        <v>8771624.545127623</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>18833225.86636166</v>
+        <v>19267479.73460017</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>544493.4203088655</v>
+        <v>3516818.932665001</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>12324803.31527175</v>
+        <v>18241082.40736543</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>12443149.50891286</v>
+        <v>14916011.472936</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>16147498.95590476</v>
+        <v>18512996.08142777</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>31175787.37851238</v>
+        <v>27720337.11248441</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>8530814.262494188</v>
+        <v>14856659.62912256</v>
       </c>
       <c r="C641" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>8866811.934993502</v>
+        <v>10403786.14962102</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>21074492.83942677</v>
+        <v>17879952.52533076</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>444067.1287932396</v>
+        <v>4277790.16527411</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>11971690.87696912</v>
+        <v>11347675.65648934</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>11478419.93985749</v>
+        <v>12637306.13979086</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>6766915.469123605</v>
+        <v>5680415.797923374</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>5910061.33435961</v>
+        <v>5683666.577594867</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>3456287.702523221</v>
+        <v>20341766.7974099</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>1829424.818461936</v>
+        <v>302877.3514915108</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>3156032.691626972</v>
+        <v>3738641.520512834</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>5986964.879866542</v>
+        <v>6046149.908274378</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>3343484.23845269</v>
+        <v>15056857.6807077</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
@@ -8931,11 +8931,11 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>55274.75827406936</v>
+        <v>17831392.25620634</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>4610092.453641651</v>
+        <v>8721619.302660573</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>1104728.43184698</v>
+        <v>761354.8824951071</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>39245.5907681737</v>
+        <v>512086.4890451594</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>9200406.275410157</v>
+        <v>1814631.41809714</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
@@ -8996,11 +8996,11 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>2220055.010009147</v>
+        <v>22980642.94013846</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>239569.8138137134</v>
+        <v>3769918.346505379</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>8226679.429988255</v>
+        <v>6292950.196806632</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>220235.4747812074</v>
+        <v>1348942.705981289</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>347327.9876176394</v>
+        <v>13966231.33827038</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>1559604.280692252</v>
+        <v>15158059.77998973</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>4881014.07807724</v>
+        <v>1203191.668988082</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>22800486.99271611</v>
+        <v>24949764.33329128</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
@@ -9100,11 +9100,11 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>2751386.984002015</v>
+        <v>14609889.48655037</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>1244548.617572621</v>
+        <v>8958243.793699116</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>6014870.020749389</v>
+        <v>8969932.243454777</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>1748436.498551629</v>
+        <v>5721436.979082385</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>5917477.323110921</v>
+        <v>1651096.797559527</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>841768.6549220216</v>
+        <v>1308342.130833462</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>5680931.095285845</v>
+        <v>2074146.424178221</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>15030893.52866288</v>
+        <v>7055186.363931616</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>3522600.267550429</v>
+        <v>2403761.61453744</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>14181855.3710578</v>
+        <v>14835474.59230941</v>
       </c>
       <c r="C676" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>6916042.569403463</v>
+        <v>8217767.904197974</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>9760680.755514964</v>
+        <v>12049372.42196005</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>2082605.213922146</v>
+        <v>4051900.710026341</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>175713.4697606503</v>
+        <v>2692289.757500374</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>13741102.48299278</v>
+        <v>4988833.297117533</v>
       </c>
       <c r="C681" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>4186933.361478169</v>
+        <v>2262132.198064638</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>6929364.453231087</v>
+        <v>3761933.825858937</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>7830499.392576096</v>
+        <v>2644102.730786511</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>811757.7176113871</v>
+        <v>113841.6044535485</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
@@ -9347,11 +9347,11 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>477393.1306750735</v>
+        <v>1800299.96086838</v>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -9360,7 +9360,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>158884.9554404239</v>
+        <v>1945784.574556756</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>4129584.648189857</v>
+        <v>3245132.31977472</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>2670317.954200661</v>
+        <v>4781125.820940907</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
@@ -9399,11 +9399,11 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>700481.6175152869</v>
+        <v>4112365.125301993</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>16999521.9840408</v>
+        <v>17931997.28797738</v>
       </c>
       <c r="C691" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>998385.5077308074</v>
+        <v>13057958.87725383</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>8987.646508959751</v>
+        <v>1372385.516128185</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>8467.664225756997</v>
+        <v>2513114.324273122</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>182200.9942022513</v>
+        <v>1714564.385378427</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>27074.25359060335</v>
+        <v>772892.3577984835</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>26266249.46517038</v>
+        <v>23118395.64640692</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>11441603.14790306</v>
+        <v>1166402.29428671</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>7036.354067680659</v>
+        <v>88145.97556559241</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>480459.2539580205</v>
+        <v>1278978.668715504</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>25404.41460744986</v>
+        <v>299650.5958812</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1814024.384286735</v>
+        <v>5743639.117126829</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>15148262.6297855</v>
+        <v>19368214.1555744</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>1390558.530123806</v>
+        <v>35374.16849271851</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>3405116.566649207</v>
+        <v>29862.93480025489</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>10606190.39618647</v>
+        <v>7713949.054797275</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1531817.130311426</v>
+        <v>237420.4035817261</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>14402822.69308385</v>
+        <v>14193415.85202139</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>15821390.98464575</v>
+        <v>9489725.400769014</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>314397.9822115911</v>
+        <v>13727484.04648385</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>417550.5485942016</v>
+        <v>1684556.086357583</v>
       </c>
       <c r="C711" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>5974139.309193075</v>
+        <v>70425.25465112079</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>47624097.68210617</v>
+        <v>32218363.29617764</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>4030264.529271535</v>
+        <v>9873173.591188222</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>10970964.81607231</v>
+        <v>17471728.81390774</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>4342763.16367467</v>
+        <v>8639163.157404507</v>
       </c>
       <c r="C716" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>1542425.359848428</v>
+        <v>3428321.188633771</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>210168.505102719</v>
+        <v>3493.655317512897</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>117595.7075366227</v>
+        <v>9899763.633278435</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>176930.8091453398</v>
+        <v>11510.37996771906</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>11271929.06092026</v>
+        <v>18435663.64279394</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>4243477.372232953</v>
+        <v>1889610.662162792</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>7146526.671250478</v>
+        <v>3131527.463040792</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
@@ -9841,11 +9841,11 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>169502.0763124261</v>
+        <v>5510474.313777667</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>181335.3360852312</v>
+        <v>224297.6239502505</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>6642652.368623832</v>
+        <v>9869879.848747533</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1981410.066811408</v>
+        <v>3331634.821038496</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>11739188.68217974</v>
+        <v>11945894.12891441</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>5619140.098013824</v>
+        <v>9231709.764690291</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>343838.1947212541</v>
+        <v>2956092.036938436</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1737893.54035865</v>
+        <v>4966511.520479416</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>4498604.061132584</v>
+        <v>6789806.721283306</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>12375795.06274382</v>
+        <v>14437450.21098549</v>
       </c>
       <c r="C733" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>9470340.028050443</v>
+        <v>9790375.597519225</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>3329902.971932756</v>
+        <v>5609064.430582041</v>
       </c>
       <c r="C735" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>16613.85174874675</v>
+        <v>1092987.024207026</v>
       </c>
       <c r="C736" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>4931492.532395354</v>
+        <v>6422867.180383414</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>2811.24398564811</v>
+        <v>2904998.186856333</v>
       </c>
       <c r="C738" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>352913.8145583465</v>
+        <v>55076.73298661433</v>
       </c>
       <c r="C739" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>1883944.121686514</v>
+        <v>12424562.90398486</v>
       </c>
       <c r="C740" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>1437639.285163598</v>
+        <v>372684.5479606256</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>616212.5326615678</v>
+        <v>80569.15001775883</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>26379.66276687013</v>
+        <v>446405.040779898</v>
       </c>
       <c r="C743" t="inlineStr">
         <is>
@@ -10101,11 +10101,11 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>693663.3183298835</v>
+        <v>4742467.529427294</v>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10114,7 +10114,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>149997.5971272976</v>
+        <v>4154932.585044743</v>
       </c>
       <c r="C745" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>1071970.097173798</v>
+        <v>6213004.48012165</v>
       </c>
       <c r="C746" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>3982072.209343148</v>
+        <v>7972958.074652235</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>21060050.4628624</v>
+        <v>12394807.63075905</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>329550.3014451805</v>
+        <v>344814.2275649852</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>4439653.557723876</v>
+        <v>556359.5856617868</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>15199194.95849585</v>
+        <v>5285966.485558506</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>654755.1569356526</v>
+        <v>542069.3817453703</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>662024.6580501521</v>
+        <v>1586438.561090979</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>292401.6635524724</v>
+        <v>4441610.879013404</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>279292.5571344878</v>
+        <v>3876719.019227297</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>4655625.339794602</v>
+        <v>77959.00522986471</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>251015.413461826</v>
+        <v>5100051.391600467</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>4803813.397649951</v>
+        <v>18871254.9447828</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>7538520.889435837</v>
+        <v>6281164.600283435</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>7570301.034291634</v>
+        <v>6917345.23063478</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>525854.2093131638</v>
+        <v>1636743.020090128</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>824209.5191216217</v>
+        <v>933.7474882702464</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -10348,11 +10348,11 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>1538868.953796556</v>
+        <v>578368.2332258357</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1200683.095736378</v>
+        <v>6019238.272642344</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>6742566.978264144</v>
+        <v>9550341.047450488</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>46573.19919850592</v>
+        <v>203858.7481788662</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>163666.4699547914</v>
+        <v>99975.27415438944</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>6101194.724647772</v>
+        <v>8847525.753164085</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>551680.8650879596</v>
+        <v>523106.3505700806</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>48618.02830667552</v>
+        <v>10025016.80054231</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>46635.95053017027</v>
+        <v>1624.515047649882</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>31505866.90444604</v>
+        <v>28538482.00806</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1773.521931231407</v>
+        <v>367923.8949760199</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>1884070.050580372</v>
+        <v>611762.8801779859</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>23979766.40219885</v>
+        <v>23060915.25410116</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>10333995.77566123</v>
+        <v>9623225.3900171</v>
       </c>
       <c r="C776" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>148420.6040366414</v>
+        <v>984634.9781755458</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>26086739.39352671</v>
+        <v>25323648.893162</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>31965.62908496918</v>
+        <v>3116203.700688353</v>
       </c>
       <c r="C779" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>154370.5903413127</v>
+        <v>1700637.643317692</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>1348.538079343806</v>
+        <v>27696.16908523744</v>
       </c>
       <c r="C781" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>780396.3851586906</v>
+        <v>622925.4685698915</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>521064.7773502828</v>
+        <v>1791995.705550209</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>4677.967490835983</v>
+        <v>324252.033543455</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>632497.721565949</v>
+        <v>18256.01463145454</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>3178716.916897114</v>
+        <v>1368511.407908003</v>
       </c>
       <c r="C786" t="inlineStr">
         <is>
@@ -10660,11 +10660,11 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>971.1924263879232</v>
+        <v>14644025.78785424</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10673,7 +10673,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>4508010.949899726</v>
+        <v>5765393.041497625</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>360819.8129630809</v>
+        <v>101690.8378581307</v>
       </c>
       <c r="C789" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>3257523.758937528</v>
+        <v>188605.9663657623</v>
       </c>
       <c r="C790" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>25528.66207189225</v>
+        <v>1031800.963633435</v>
       </c>
       <c r="C791" t="inlineStr">
         <is>
@@ -10725,11 +10725,11 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>468876.1128472356</v>
+        <v>7119136.509381959</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>2429574.359118503</v>
+        <v>1190695.570161586</v>
       </c>
       <c r="C793" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>6143194.009088163</v>
+        <v>94294.80498916523</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>296882.7067820763</v>
+        <v>301213.4963334095</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>8541492.062234649</v>
+        <v>11339033.54157603</v>
       </c>
       <c r="C796" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>1648149.077049606</v>
+        <v>65152.17454316775</v>
       </c>
       <c r="C797" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>3123.074700227871</v>
+        <v>4219007.115251669</v>
       </c>
       <c r="C798" t="inlineStr">
         <is>
@@ -10816,11 +10816,11 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>596213.5345056352</v>
+        <v>216681.6434896209</v>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10829,7 +10829,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>26870.58381355425</v>
+        <v>1341318.324245007</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>9570146.107872374</v>
+        <v>11367884.36715404</v>
       </c>
       <c r="C801" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>155045.9599882479</v>
+        <v>7383086.45161902</v>
       </c>
       <c r="C802" t="inlineStr">
         <is>
@@ -10868,11 +10868,11 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>2086450.375396496</v>
+        <v>94787.41716927644</v>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>83607.89801078223</v>
+        <v>5094810.587696375</v>
       </c>
       <c r="C804" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>404795.2369336811</v>
+        <v>357.3957860853441</v>
       </c>
       <c r="C805" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1771874.760850677</v>
+        <v>468800.5563342747</v>
       </c>
       <c r="C806" t="inlineStr">
         <is>
@@ -10920,11 +10920,11 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>2938066.034211563</v>
+        <v>922734.4838269588</v>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10933,11 +10933,11 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>575726.9382484442</v>
+        <v>14481808.53468677</v>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10946,11 +10946,11 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>787190.8219054854</v>
+        <v>4034151.202356574</v>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>500920.5657770812</v>
+        <v>2617297.390843363</v>
       </c>
       <c r="C810" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>4665203.809550061</v>
+        <v>17244562.40747096</v>
       </c>
       <c r="C811" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>294849.0975218938</v>
+        <v>387450.526172584</v>
       </c>
       <c r="C812" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>6250453.022938539</v>
+        <v>39669926.64671083</v>
       </c>
       <c r="C813" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>1707341.193877303</v>
+        <v>43430671.83055826</v>
       </c>
       <c r="C814" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>1135165.979144722</v>
+        <v>7494578.837194039</v>
       </c>
       <c r="C815" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>2031417.159019748</v>
+        <v>8004800.557794126</v>
       </c>
       <c r="C816" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>296429.5062546214</v>
+        <v>8188111.872721938</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>80019.58801956676</v>
+        <v>308263.6213382114</v>
       </c>
       <c r="C818" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>903117.4080299244</v>
+        <v>5426220.774719943</v>
       </c>
       <c r="C819" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>65789.41088164021</v>
+        <v>3432473.70970456</v>
       </c>
       <c r="C820" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>170107.2078126935</v>
+        <v>55473.24700645296</v>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1181740.697213846</v>
+        <v>12378202.97957582</v>
       </c>
       <c r="C822" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>134699.920759906</v>
+        <v>96886.94753882434</v>
       </c>
       <c r="C823" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>23907.58994634823</v>
+        <v>25545641.12057929</v>
       </c>
       <c r="C824" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>235423.3937096813</v>
+        <v>1369976.622374925</v>
       </c>
       <c r="C825" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>600934.9859415506</v>
+        <v>730798.7400757804</v>
       </c>
       <c r="C826" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>2371694.496160124</v>
+        <v>6354670.096154348</v>
       </c>
       <c r="C827" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>9997430.389683222</v>
+        <v>2243853.039862438</v>
       </c>
       <c r="C828" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>830186.8000756057</v>
+        <v>63747.69443694317</v>
       </c>
       <c r="C829" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>3323149.402894594</v>
+        <v>862594.2866577418</v>
       </c>
       <c r="C830" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>4284418.066843662</v>
+        <v>17840.70296826062</v>
       </c>
       <c r="C831" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>13082302.0524276</v>
+        <v>7116265.248805966</v>
       </c>
       <c r="C832" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>5406423.490330736</v>
+        <v>22319650.41743232</v>
       </c>
       <c r="C833" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>6256103.136283774</v>
+        <v>233308.490546213</v>
       </c>
       <c r="C834" t="inlineStr">
         <is>
@@ -11284,11 +11284,11 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1642137.407142962</v>
+        <v>1384314.201579377</v>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>target</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>1015390.221458513</v>
+        <v>1408269.401487832</v>
       </c>
       <c r="C836" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>970473.4954456794</v>
+        <v>7522904.679131572</v>
       </c>
       <c r="C837" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>3576196.156960899</v>
+        <v>20692885.89503391</v>
       </c>
       <c r="C838" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>27271595.96639719</v>
+        <v>43377643.41940364</v>
       </c>
       <c r="C839" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>11580733.82554853</v>
+        <v>19861511.43035446</v>
       </c>
       <c r="C840" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>14090067.86691968</v>
+        <v>3597968.652309601</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>4715269.918083909</v>
+        <v>324511.1771553012</v>
       </c>
       <c r="C842" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>254019.972696971</v>
+        <v>345640.4862417749</v>
       </c>
       <c r="C843" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>698525.2036753595</v>
+        <v>853254.9865041641</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>4749438.84518737</v>
+        <v>11518989.39842566</v>
       </c>
       <c r="C845" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>8869494.84365622</v>
+        <v>991031.5237016171</v>
       </c>
       <c r="C846" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>2383548.425868339</v>
+        <v>51683837.48103909</v>
       </c>
       <c r="C847" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>150650.2622183156</v>
+        <v>616426.4555279142</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>10506244.46991408</v>
+        <v>6135591.289708991</v>
       </c>
       <c r="C849" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>418240.9619114813</v>
+        <v>1740847.35369588</v>
       </c>
       <c r="C850" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>6615491.55445521</v>
+        <v>5965699.543446117</v>
       </c>
       <c r="C851" t="inlineStr">
         <is>

--- a/output/node_energy_by_group.xlsx
+++ b/output/node_energy_by_group.xlsx
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67521.43261227707</v>
+        <v>132278.7842339117</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6323811.345872015</v>
+        <v>4454.340629782584</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13181700.26623813</v>
+        <v>130064.8460116375</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6384758.183899256</v>
+        <v>21905.44476987292</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23630.93740629536</v>
+        <v>67844.2627284888</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4705.872614284799</v>
+        <v>453170.4887304925</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3252447.056130978</v>
+        <v>170455.0105401255</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10178363.61430663</v>
+        <v>184331.7922971332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2107012.96386357</v>
+        <v>866749.199980265</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17022572.3203677</v>
+        <v>354041.2174553721</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2918737.405779793</v>
+        <v>82920.85837448733</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11536678.682721</v>
+        <v>219611.0458197044</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>707884.4226843927</v>
+        <v>912102.9289853838</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18358044.48572508</v>
+        <v>269154.6753750073</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3468755.82582833</v>
+        <v>31323.79697318624</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>90529.67108441085</v>
+        <v>3368781.483182509</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1344753.237814272</v>
+        <v>598470.8940605578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4566015.928103009</v>
+        <v>422221.7441172065</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>23136031.80658875</v>
+        <v>81966.24529581553</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2447062.624952083</v>
+        <v>911897.2686051944</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2186371.447267521</v>
+        <v>14128.34886175325</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>594402.60967683</v>
+        <v>75400.61421457829</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>17933379.19918042</v>
+        <v>138346.6313240965</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>12517.2627426227</v>
+        <v>1737119.545799738</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>13230634.07551446</v>
+        <v>34533.4248258021</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>23282658.30484425</v>
+        <v>21935.23816504209</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5755648.096886085</v>
+        <v>344137.9978757869</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>11884655.55921505</v>
+        <v>8757.200265110587</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>5815.450479011208</v>
+        <v>3304146.963757813</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>734220.00190079</v>
+        <v>934778.3535026551</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>15385818.02832578</v>
+        <v>100595.2826302687</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>10420859.90324846</v>
+        <v>80514.45007786372</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>149151.4707606094</v>
+        <v>139909.9439001394</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>16028240.4300194</v>
+        <v>6828.199943659591</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1122037.867147441</v>
+        <v>39435.81364754492</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>40870.40585346078</v>
+        <v>191836.2933608697</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1947295.0675606</v>
+        <v>936836.7557482936</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>26940411.24478768</v>
+        <v>821.2019629115903</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>2520640.851857886</v>
+        <v>2972981.461733638</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>1120068.173774495</v>
+        <v>1803.852215581102</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1706301.796674624</v>
+        <v>21911249.9742763</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>7119199.95552298</v>
+        <v>460995.3875373228</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>51773.55696548478</v>
+        <v>712728.9499417079</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>108770.5361749604</v>
+        <v>4477964.231926426</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6474818.360970936</v>
+        <v>1206942.735791208</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>311568.3554417246</v>
+        <v>548605.8368719227</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>843680.6902836536</v>
+        <v>5310583.380165056</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>7618236.685610533</v>
+        <v>1567574.521514659</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>230864.0226280454</v>
+        <v>521210.7502511603</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>7412659.281214485</v>
+        <v>3112080.295199839</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>13693675.08985281</v>
+        <v>385985.9514505967</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>3158299.852664995</v>
+        <v>158682.3920479995</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>8531996.584535094</v>
+        <v>667865.0408468714</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2032025.599731552</v>
+        <v>614907.4165025989</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>10005897.37060976</v>
+        <v>4090161.23981606</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>496962.425874504</v>
+        <v>8070437.502251129</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>860461.0414561634</v>
+        <v>3244547.698400948</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>794016.4461334648</v>
+        <v>288879.8549916701</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>1438341.82768505</v>
+        <v>2094274.174665073</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1011640.162192606</v>
+        <v>24822953.09330814</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>2422806.365939891</v>
+        <v>2349596.305635537</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>3968998.429643882</v>
+        <v>336425.2331876148</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>3362732.195201402</v>
+        <v>586937.2846893545</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>8966381.812293284</v>
+        <v>2134963.31556729</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1548809.884893229</v>
+        <v>1185510.026939358</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>3549370.02442844</v>
+        <v>211848.0990926686</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>164714.8915046856</v>
+        <v>1928904.036488435</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>12204750.97634799</v>
+        <v>5706.423776751575</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>744740.4007518312</v>
+        <v>51512.66101110788</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>12151615.87385657</v>
+        <v>45021.23177690576</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1424743.448542579</v>
+        <v>8793.504729266753</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>18942372.21175256</v>
+        <v>10231.7398819879</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>10139780.7005143</v>
+        <v>81208.14415239907</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>6576091.820855569</v>
+        <v>793237.8584918893</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>11984162.20130762</v>
+        <v>30575.49230713458</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>12234246.51146669</v>
+        <v>44880.68898960788</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>5906107.110698802</v>
+        <v>79545.87687022105</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>7817107.024086292</v>
+        <v>632.3443934542109</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>119254.6657185395</v>
+        <v>211126.9877062797</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>4081674.108266979</v>
+        <v>1074571.743806277</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>2781259.781879144</v>
+        <v>49121.47388348722</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1615576.5216896</v>
+        <v>383361.4043871349</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1718571.655517368</v>
+        <v>302689.8451005247</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1958435.889619869</v>
+        <v>58341.03973557603</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>718293.7640306465</v>
+        <v>149189.2560488207</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>3019746.656233476</v>
+        <v>2842.297559602102</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>4708029.545889</v>
+        <v>54635.21796140349</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>12127312.30220132</v>
+        <v>57907.41694517258</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>2544027.246199744</v>
+        <v>161678.5546388442</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>442809.1949364948</v>
+        <v>14225.17292059539</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>5530017.609649472</v>
+        <v>213429.4648201671</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>8125596.808349889</v>
+        <v>74313.84351085704</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8725480.988929415</v>
+        <v>79809.23189971456</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1860369.115426687</v>
+        <v>294245.4214480246</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>660047.7531138359</v>
+        <v>460579.3755472834</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>491927.2761807318</v>
+        <v>78112.54578448253</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>313382.9462955263</v>
+        <v>481013.7128387499</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>12225507.99551474</v>
+        <v>10898.03952668</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>19266642.39840209</v>
+        <v>4871.107329297851</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>8392334.169965891</v>
+        <v>50542.74473540373</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>11088035.90889585</v>
+        <v>2436.273363308525</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>518020.438266844</v>
+        <v>286680.6552625298</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>121161.0779859428</v>
+        <v>72465.87852381886</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>6635094.513305899</v>
+        <v>37880.02593009784</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>23647748.63836503</v>
+        <v>2725.318702505245</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>2169724.027396139</v>
+        <v>14781131.04511171</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>2813418.386080726</v>
+        <v>5292.018005306563</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>2994424.706221391</v>
+        <v>142870.5059550524</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>691738.5459746363</v>
+        <v>21925.52632825012</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>5413923.83011437</v>
+        <v>116358.1622211267</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>4832574.187917152</v>
+        <v>43312.0591752499</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>165923.3080206645</v>
+        <v>1061776.189022545</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>8940.951799161539</v>
+        <v>2699.075675281695</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>21653558.9975906</v>
+        <v>27542.04335429316</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>6180351.632810771</v>
+        <v>98710.66973851086</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>13151717.472216</v>
+        <v>18058.05862970113</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>11287371.28403102</v>
+        <v>899087567.7637694</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>8283629.525428683</v>
+        <v>45451.06823803233</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>4872936.607850192</v>
+        <v>38273.72783265794</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>28805277.738626</v>
+        <v>24.8916507679727</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>7555.433532641322</v>
+        <v>278845.5343732872</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>11441364.96362944</v>
+        <v>337186.4903797586</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1263771.468549989</v>
+        <v>509011.4582935382</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>14930566.21900955</v>
+        <v>11879.78796757747</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>23003097.44220022</v>
+        <v>117353.5882931816</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>23809223.04456377</v>
+        <v>44210.49221618644</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>14780657.41607483</v>
+        <v>3428.031813392496</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>25051769.77872304</v>
+        <v>709.8505827564129</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>6999153.996666722</v>
+        <v>93927.64360461471</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>22809418.10316344</v>
+        <v>547266880.8850935</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>17925000.36653833</v>
+        <v>941006.2445175132</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>12888746.53534034</v>
+        <v>213699.4255580372</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1746006.162199498</v>
+        <v>17558.0469110328</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>13176135.93656332</v>
+        <v>32615.16201169272</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>9179342.289426761</v>
+        <v>284218.62204015</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>329843.8339393375</v>
+        <v>105081.9500539804</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>2372625.419598244</v>
+        <v>380542.4585028745</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>8037443.667692311</v>
+        <v>85014.04969240815</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>12101068.02952222</v>
+        <v>556567.5222720385</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>15192.13801182896</v>
+        <v>554651.496177976</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>21828738.18215047</v>
+        <v>890593.3688811761</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>2474409.548369076</v>
+        <v>177363.854076209</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>25089.23509167349</v>
+        <v>13537.46389951458</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>4794365.681773502</v>
+        <v>102565.6115489898</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>82818.5918569916</v>
+        <v>1636403.235260716</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>4026706.3347885</v>
+        <v>17193.57819408869</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>117106.8144883416</v>
+        <v>1032225.934099063</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>5179982.383808585</v>
+        <v>97383.48527277099</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>6231951.781360784</v>
+        <v>240613.762779361</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>462304.7006270362</v>
+        <v>1323658.209343408</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>5532467.754042231</v>
+        <v>17263117.31664832</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>11351736.25155345</v>
+        <v>3763721.44124111</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>17573.79561597994</v>
+        <v>32572732.85455527</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>7123303.019892467</v>
+        <v>18846905.97648872</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>16932067.56433558</v>
+        <v>6996398.656996613</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>3170989.542827097</v>
+        <v>846539.3079278305</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>893254.2364572529</v>
+        <v>959.4132375869024</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>3413721.163275673</v>
+        <v>145405.5196481829</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>8745103.968286831</v>
+        <v>27718732.8938749</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1053065.928875842</v>
+        <v>17943.98478366674</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>2107288.959277884</v>
+        <v>84327.55882673325</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>2027852.749405682</v>
+        <v>1112426.181800676</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>120542.5020282744</v>
+        <v>118724.9003605165</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>721139.9554200782</v>
+        <v>970269.9482227652</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>5214579.82554161</v>
+        <v>20718.54404359183</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>118975.0881686394</v>
+        <v>1049550.054434532</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>9055627.551851911</v>
+        <v>950983.9501369256</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>2067110.871280278</v>
+        <v>6170.300978496812</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>652432.953608321</v>
+        <v>1157.929422230968</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>2626011.791680856</v>
+        <v>4860083.957802203</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>13286117.28200018</v>
+        <v>758947.503980996</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>1169590.789365359</v>
+        <v>13764994.98432151</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>13931162.32515881</v>
+        <v>912878.2129619828</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>5262532.898384905</v>
+        <v>18761518.04881759</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>17868714.21464744</v>
+        <v>133040.0835977384</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>7295519.373536767</v>
+        <v>1374804.711722429</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>415091.6257204262</v>
+        <v>431330.1667083975</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4480787.875454983</v>
+        <v>528587.0669813348</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>987685.6245462979</v>
+        <v>3646009.20144644</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>553249.9400738257</v>
+        <v>149306.8752187053</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>483412.4603546976</v>
+        <v>31926.86904230828</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>6130686.626065262</v>
+        <v>37475.18411393664</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>22276021.14607407</v>
+        <v>999.9134257370608</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>10581575.84859547</v>
+        <v>14123.56786260814</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>20856759.7350993</v>
+        <v>6701.967075545235</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>3041458.89404834</v>
+        <v>1453.694963089021</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>23544461.51680148</v>
+        <v>6541.584862334231</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>686313.857907149</v>
+        <v>1767.921682948265</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>706932.7731031488</v>
+        <v>9764.875196412737</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>661827.6389882774</v>
+        <v>160682.5698462291</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>160425.4814467676</v>
+        <v>786493.644835439</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>9154736.34415067</v>
+        <v>19172.72339368201</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>2990511.657606207</v>
+        <v>217697.2768626161</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>3194163.903384651</v>
+        <v>2589583.377084423</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>8062.384642845438</v>
+        <v>40750.10031522386</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>240749.8197570004</v>
+        <v>2570159.878906898</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1220015.270768143</v>
+        <v>1328525.536865324</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>2248179.370953948</v>
+        <v>367953.1456697049</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>61534.24049928832</v>
+        <v>22335.3878930387</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>24331192.1364766</v>
+        <v>623.686297697325</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>17083548.2251809</v>
+        <v>5970.301569672604</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>3094230.765129233</v>
+        <v>751.473282229819</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>5170990.709794644</v>
+        <v>1477.788380280398</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>7750251.380927966</v>
+        <v>34976.08447651478</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>21401897.07252393</v>
+        <v>5.670623239395701</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>16227386.6440453</v>
+        <v>84.1362116119096</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>9840698.11377177</v>
+        <v>29670.86084165011</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>283954.3469559629</v>
+        <v>1047.068550730324</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>3150836.584143336</v>
+        <v>48169.44158922811</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>93598.24476822006</v>
+        <v>55622.48555431834</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>5193738.336956312</v>
+        <v>42860.33492375425</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>14421977.59837949</v>
+        <v>3984.499958112718</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>404486.4753139697</v>
+        <v>125.186999049647</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>709634.1871688984</v>
+        <v>28987.44108315043</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>8110892.012257851</v>
+        <v>45598.35748822882</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>49629.36026213483</v>
+        <v>869608.6306261236</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>1600081.172507874</v>
+        <v>1762493.026907818</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>1069659.424865669</v>
+        <v>521692.2467830667</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>192125.7974700248</v>
+        <v>93589.36641113739</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>201627.34507594</v>
+        <v>259178.9332366931</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>1004689.173765581</v>
+        <v>505631.6002438538</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>2678343.102215552</v>
+        <v>732926.5990784406</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>247708.1776588775</v>
+        <v>2373.42211981978</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>3987547.749145833</v>
+        <v>604965.0163007461</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>443929.7586309433</v>
+        <v>14994.73974972854</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>171292.5095122054</v>
+        <v>22086.1097924781</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>28043351.4016838</v>
+        <v>610.3161052304451</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>6761832.222652928</v>
+        <v>12152.33291202564</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>165691.4653561877</v>
+        <v>23939.74090360438</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>7736010.047813655</v>
+        <v>205752.3304545885</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>2062401.558170997</v>
+        <v>214038.771663639</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>13709001.50999857</v>
+        <v>39175.0093745281</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>14965850.49757553</v>
+        <v>16559.20432766745</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>15297264.54251422</v>
+        <v>23012.49118363091</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>11206751.50839979</v>
+        <v>1557.975263574694</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>4947697.859380673</v>
+        <v>267323.0188204149</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>11503482.93156575</v>
+        <v>10537.99039785226</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>9148815.412836691</v>
+        <v>36263.33405408378</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>27022747.40885651</v>
+        <v>2852.714213736338</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>12447129.61820239</v>
+        <v>371.8227790500912</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>5012193.252230203</v>
+        <v>49295.63488461921</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>18650816.63896913</v>
+        <v>16257.58364446188</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>17289831.22726679</v>
+        <v>398.8254538487399</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>21338214.59633387</v>
+        <v>149.2542873955184</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>16380078.16527433</v>
+        <v>31447.81385985165</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>7242967.007917495</v>
+        <v>37007.93139553339</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>31374077.10150182</v>
+        <v>1185893.876470831</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>140748.6634500154</v>
+        <v>11621.59126582368</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>25907455.44399384</v>
+        <v>344730.436776904</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>25804889.89267819</v>
+        <v>582.0272234355568</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>25634297.94810545</v>
+        <v>24968.60887626272</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>31818.58462716677</v>
+        <v>12788.12812247888</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>18398199.13996374</v>
+        <v>111362.3863584019</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>14559423.25666054</v>
+        <v>43281.64365928428</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>4902197.836425748</v>
+        <v>119.9221263679693</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>148460.6405002678</v>
+        <v>139684.7328966869</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>25425255.43764403</v>
+        <v>210.1832422243908</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>21909385.69125878</v>
+        <v>93.06160731747812</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>1051002.976637789</v>
+        <v>107688.0951282682</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>17098370.06776768</v>
+        <v>90552453.9593104</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>231508.5753156734</v>
+        <v>506463.8199507661</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>2755005.924217704</v>
+        <v>1619412.63285169</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>10000106.47223197</v>
+        <v>373067.5177055027</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>1764857.864400544</v>
+        <v>727936.6044634378</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>1810992.490366834</v>
+        <v>367445.4927262874</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>2327655.702766504</v>
+        <v>2650752.845937709</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>13792972.84809264</v>
+        <v>472433.4337214086</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>2283521.695201707</v>
+        <v>2918466.962848191</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>8652529.81631783</v>
+        <v>1951462.548514487</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>3253281.035462463</v>
+        <v>2062890.421708592</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>6022257.379286319</v>
+        <v>20329.09420323107</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>970112.2643971489</v>
+        <v>66791.72850180035</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>138177.967720836</v>
+        <v>12946.05979197326</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>13239903.2676554</v>
+        <v>18200.64798120905</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>20678783.68019681</v>
+        <v>161.1857472835218</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>135381.24454929</v>
+        <v>116.7095095352983</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>13359484.1459699</v>
+        <v>4.309976329462608</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>7857549.224868413</v>
+        <v>73.79298446908716</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>2990902.353848285</v>
+        <v>104.6273839558685</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>716328.149917142</v>
+        <v>7.186052268984432</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>8879272.723691909</v>
+        <v>723.4989139723151</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>9305302.503859928</v>
+        <v>29.92253126437701</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>8015869.992290166</v>
+        <v>3979.864834777348</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>1597720.463618031</v>
+        <v>4506.635330077858</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>2023100.636428452</v>
+        <v>10694.76933619742</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>6307561.313594769</v>
+        <v>2132.913771619271</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>5874225.85299903</v>
+        <v>44167.43263172475</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>7611578.123312715</v>
+        <v>13753.61881344785</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2231661.394352905</v>
+        <v>8518.73615057829</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>14721014.8005997</v>
+        <v>7250.486646078687</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>15251693.93023541</v>
+        <v>5065.724379625067</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>9341137.599649981</v>
+        <v>91.28135286834598</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>11486498.13382427</v>
+        <v>139.1239355284663</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>905563.2667187916</v>
+        <v>495376477.4801154</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>11511923.56145704</v>
+        <v>78694168.35590035</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>15193548.08551115</v>
+        <v>6467868.961692873</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>847334.3373980145</v>
+        <v>11098305.9152868</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>1269283.306213877</v>
+        <v>12391.6600655433</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>1021989.750653552</v>
+        <v>132865.1019930653</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1354053.187025497</v>
+        <v>368872.1245701533</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>17325827.74379709</v>
+        <v>328350.663814716</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>2918034.635028435</v>
+        <v>862.2007833028413</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>13053699.74128427</v>
+        <v>5845.311002681492</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>107901.5444305478</v>
+        <v>993033.984373062</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>4426548.541867828</v>
+        <v>489312.6034374285</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>11108607.35154315</v>
+        <v>1328176.092308155</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>23136705.08864817</v>
+        <v>228.950663169304</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>24878215.68510596</v>
+        <v>1378.111374333142</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>1022.665365922819</v>
+        <v>2273006.289034295</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>3098171.764970802</v>
+        <v>666885.2043897361</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>15662293.23968307</v>
+        <v>25777.14281388577</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>14237459.81583209</v>
+        <v>61095.74908655899</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>592261.0939361141</v>
+        <v>356059.2476749795</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>265066.4129554573</v>
+        <v>486271.5493950685</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>9612678.720711401</v>
+        <v>56778.38040366685</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>1203250.704249514</v>
+        <v>9526513.251238266</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>5627713.32326704</v>
+        <v>167023.2578387803</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>1406079.473129704</v>
+        <v>25824.52590867877</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>5774375.445452531</v>
+        <v>11323221.6288432</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>658521.0519615465</v>
+        <v>112614492.4476839</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>1677892.042625491</v>
+        <v>34711.5304378627</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>146574.6858137874</v>
+        <v>43012.5135120131</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>20351632.04394788</v>
+        <v>1901327.009328543</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>6260715.21102096</v>
+        <v>6038967.830951867</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>1024137.139111275</v>
+        <v>28535.04249222252</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>8159827.460362267</v>
+        <v>4022895.455424989</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>419915.7745506404</v>
+        <v>483493.3196397575</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>4436203.001821483</v>
+        <v>5099931.279072184</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>457680.1469048498</v>
+        <v>15202989.81436406</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1994200.525402918</v>
+        <v>648230.660352305</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>6023934.821950465</v>
+        <v>1200086.038562249</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>11441836.06846776</v>
+        <v>7611871.759940594</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>182079.4829930218</v>
+        <v>753.7389892313726</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>13125500.34260192</v>
+        <v>3252.252446176704</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>45378.05074287356</v>
+        <v>6887.710566343138</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>3020506.226156222</v>
+        <v>26336.46194177092</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>8639359.003271285</v>
+        <v>235633.5023292528</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>5067006.450275821</v>
+        <v>1499.136992490249</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>13321109.87423605</v>
+        <v>6474.716055983989</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>24932212.06265845</v>
+        <v>368.7069264866739</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>6622092.701392295</v>
+        <v>200.0889826700036</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>2765673.745067138</v>
+        <v>2707.200959062598</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>9081447.135705056</v>
+        <v>10239.40007987313</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>5752041.629847446</v>
+        <v>541195.921877993</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>12761193.219306</v>
+        <v>20012.74975086334</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>201679.090918632</v>
+        <v>1742.687062029544</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>13129101.71547861</v>
+        <v>4100.606343428716</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>75061.19230468452</v>
+        <v>2312.93939311555</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>1641169.697198229</v>
+        <v>459.1211842032245</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>9603905.65313226</v>
+        <v>99.07282611584591</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>6312821.836563249</v>
+        <v>26624.82659562957</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>895424.9188798964</v>
+        <v>31084.75286122314</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>614441.5024397997</v>
+        <v>26567.34622290379</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>18467757.71726233</v>
+        <v>14.57014607643687</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>25558.25673614182</v>
+        <v>102058.9901991676</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>87353.16381013909</v>
+        <v>39270.58145455067</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>423068.9375536363</v>
+        <v>12160.45298672436</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>17785286.16859715</v>
+        <v>705.8586735567062</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>19390078.28624951</v>
+        <v>2296.583144279492</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>694601.6866941958</v>
+        <v>9326.320562842982</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>39605.30526956257</v>
+        <v>100086.6504668597</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>27927095.75993213</v>
+        <v>41.18013929511859</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>6410423.877773296</v>
+        <v>10221.78637107168</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>23674.22840870749</v>
+        <v>76780.32302222427</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>3795112.761643605</v>
+        <v>182395.4154826797</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>1633155.683140062</v>
+        <v>31796.39405702502</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>4584481.010661744</v>
+        <v>16909.6564226749</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>6647728.686240065</v>
+        <v>4826.376792332357</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>13115224.75441777</v>
+        <v>575.9455289790227</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>82067.2436213536</v>
+        <v>85975.95616880129</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>606762.0553786026</v>
+        <v>12743.6660541639</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>6580424.354111342</v>
+        <v>3857.983476066384</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>94750.75916739579</v>
+        <v>961440.6131663744</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>3282168.338960175</v>
+        <v>21674.61372221525</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>2810354.542450693</v>
+        <v>2660285.346486702</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>393971.5595982212</v>
+        <v>507777.0745274163</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>351353.1527801439</v>
+        <v>188301.5349694957</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>1038191.741016308</v>
+        <v>140312.2111609692</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>10817838.3018765</v>
+        <v>29861.91358791225</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>271704.7622919355</v>
+        <v>255542.8881639169</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>23072.50308488652</v>
+        <v>1235149.814057864</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>132422.9518011713</v>
+        <v>242650.1581153586</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>1565390.057886585</v>
+        <v>6283.253491575459</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>7353535.351611087</v>
+        <v>276843.9308463432</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>942718.8229496372</v>
+        <v>2640223.059209918</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>373801.0847473238</v>
+        <v>4736279.644163348</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1040520.533804543</v>
+        <v>2358066.844080337</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>498606.6804425126</v>
+        <v>538675.9517026403</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>928942.0967585944</v>
+        <v>9757665.62586008</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>1940753.231729888</v>
+        <v>4927036.873473027</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>3482631.56018263</v>
+        <v>16335286.35217562</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>1263178.423889968</v>
+        <v>9396116.397572324</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>15937139.10983218</v>
+        <v>47166.80352244235</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>16127538.27715082</v>
+        <v>157120.4396781955</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>1350863.054535718</v>
+        <v>203825.381654825</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>10481689.5424186</v>
+        <v>357940.6226905348</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>860817.5751663786</v>
+        <v>10476366.02269268</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>6836701.069713171</v>
+        <v>190804.409331794</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>21970033.88094691</v>
+        <v>13815329.4617345</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>20185634.39089588</v>
+        <v>1600.092191756896</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>18228233.47601368</v>
+        <v>468.8121451174352</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>2361753.057664533</v>
+        <v>37166.85485769227</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>4296404.90278255</v>
+        <v>8370.356910291652</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>14465548.23553926</v>
+        <v>2354.651270689315</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>6202801.710928818</v>
+        <v>4287.539753925123</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>264516.1584525459</v>
+        <v>7792.108552114002</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>65064.10821621172</v>
+        <v>80363.19136487818</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>885317.8069465413</v>
+        <v>9321.638619521756</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>11276667.4900516</v>
+        <v>18235.16294437866</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>1238.36646588474</v>
+        <v>6425.935276037861</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>117326.8436100241</v>
+        <v>32157.61614358704</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>428488.1082885109</v>
+        <v>16330.94895967333</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>573360.3633953767</v>
+        <v>606928.7599484969</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1105469.025437872</v>
+        <v>45719.08988927278</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>5918.476344850586</v>
+        <v>327895.7638075169</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>213494.0719300168</v>
+        <v>72861.87841319339</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>1800613.90045524</v>
+        <v>32621.31004501018</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>1079510.620633782</v>
+        <v>16416.89642613706</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>14933995.84841615</v>
+        <v>26814.26245841716</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>28951933.42894826</v>
+        <v>557.383509454188</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>881759.3491576188</v>
+        <v>17661.50921466915</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>531715.0220829322</v>
+        <v>118132.0276132987</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>5552703.142470352</v>
+        <v>7472.393260668304</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>387265.7119495547</v>
+        <v>22335.94025102059</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>716955.0118611709</v>
+        <v>101828.3837589755</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>5382902.831626719</v>
+        <v>85906.37397094752</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>29371082.98630323</v>
+        <v>11304.22851591502</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>364735.4873476472</v>
+        <v>20240.66132787296</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>1262438.676387152</v>
+        <v>2269.785907560631</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>404358.1237791452</v>
+        <v>21363.51021994795</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>456913.7010766919</v>
+        <v>27683.58231408001</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>6077267.981170867</v>
+        <v>83747.41996778635</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>11479494.91531785</v>
+        <v>9110.166619264244</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>1618169.938715016</v>
+        <v>1401742.185954575</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>736938.8056655714</v>
+        <v>113054.2364242931</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>6414352.895040899</v>
+        <v>22806.98853151259</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>43421.98114796351</v>
+        <v>169998.0985356816</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>398726.0787990578</v>
+        <v>168881.7975862455</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>7933640.354640119</v>
+        <v>329581.677333414</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>6772716.892907629</v>
+        <v>258875.9058014607</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>529710.2985645239</v>
+        <v>98408.73801101984</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>4648321.493672867</v>
+        <v>11776.26971796029</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>123953.8629043463</v>
+        <v>9322.442491080888</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>9031603.726357523</v>
+        <v>2577.827644335232</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1429019.442346651</v>
+        <v>1017988.769293237</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>3130621.963018288</v>
+        <v>105037.3035244976</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>23549609.42672993</v>
+        <v>4130.532321026254</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>8203195.21415755</v>
+        <v>37719.08606244096</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>335765.2061644598</v>
+        <v>60712.48823979103</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>6092804.332236206</v>
+        <v>88488.26260798497</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>13390226.98160401</v>
+        <v>175.5328064734759</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1843145.902860401</v>
+        <v>12559.02551502829</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>235707.1877199707</v>
+        <v>199890.0096248137</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>3904081.692254386</v>
+        <v>138835.8884025678</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>945883.1842826244</v>
+        <v>68149.20754571275</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>214326.7220050276</v>
+        <v>141324.691367517</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>262058.5258729998</v>
+        <v>94287.88673452672</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>7417.522122667777</v>
+        <v>21911.28467688146</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>22195.19181382731</v>
+        <v>231817.492476164</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>5687297.830793813</v>
+        <v>42944.81211615391</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>278958.7018968994</v>
+        <v>52130.08038132622</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>471.8503968944028</v>
+        <v>210417.4051455482</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>232028.4745205249</v>
+        <v>665319.747858214</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>7418431.675771169</v>
+        <v>306657.1837346449</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>190431.9715760228</v>
+        <v>378102.4715543858</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>413994.693387309</v>
+        <v>136492.9363884822</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>3571067.742584924</v>
+        <v>49059.64050017654</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>5259909.703842589</v>
+        <v>226.56403119225</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>2293211.282227911</v>
+        <v>8491.496095665574</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>954605.4491600296</v>
+        <v>7797.870216981926</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>2224.79055763843</v>
+        <v>4977.958890047694</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1098692.423405383</v>
+        <v>1181.767558647646</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>12401741.76520916</v>
+        <v>134.6621152373667</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>5774348.984019322</v>
+        <v>8976.143048631689</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>1720811.320473687</v>
+        <v>11309.12414674952</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>7971.831406357754</v>
+        <v>7804.437075764527</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>9095653.595710844</v>
+        <v>3.594537626946713</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>13906205.87438851</v>
+        <v>138.5541733212175</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>22195787.99011546</v>
+        <v>22.37291154149296</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>8011890.167811433</v>
+        <v>2.228366697783393</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>5560668.195433999</v>
+        <v>1694.83052645123</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>15328913.91805628</v>
+        <v>1446.977553782896</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>5142565.157660076</v>
+        <v>9852.563497795978</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>8433894.253628979</v>
+        <v>7623.947796100901</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>12371396.40884036</v>
+        <v>347.6685025350984</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>11232838.46770874</v>
+        <v>303.106583571968</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>574674.2410963677</v>
+        <v>16996.42072612971</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>3556594.410262729</v>
+        <v>9698.327053435693</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>14750273.00146616</v>
+        <v>1064.363007478521</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>7582958.627432837</v>
+        <v>437.3527259889914</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>408832.7009416128</v>
+        <v>4718.581288384174</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>9363828.444665153</v>
+        <v>3022.880289870321</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>5557399.790566693</v>
+        <v>1905.103288159633</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>5139537.303274572</v>
+        <v>3536.560041619918</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>245611.8909111176</v>
+        <v>49024.59776493076</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>4496378.256788542</v>
+        <v>26880.51835260624</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>2656686.133839294</v>
+        <v>20667.30677135377</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>2709300.121300966</v>
+        <v>550.817323330213</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>1716271.226457999</v>
+        <v>663.4174343939104</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>1013091.954720613</v>
+        <v>10279.86964522285</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>3277805.584874739</v>
+        <v>4936.41172065549</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>212514.627528251</v>
+        <v>48.16689872967248</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>942310.5723638166</v>
+        <v>42534.31007156362</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>12266219.08647948</v>
+        <v>500.3460861603557</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>175383.8989567175</v>
+        <v>2854.303624261694</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>2970317.682756404</v>
+        <v>1844.862023483731</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>14335761.40126505</v>
+        <v>544.6702544643249</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>2191140.255286138</v>
+        <v>19082.0213358105</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>5492023.589649552</v>
+        <v>60538.21955956439</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>39086.23652818908</v>
+        <v>22165.37727753666</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>5290278.500035916</v>
+        <v>790.7911667221839</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>2786066.901112165</v>
+        <v>10874.71299532012</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>4679657.478967884</v>
+        <v>36649.62999344026</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>20223630.9244421</v>
+        <v>139.3019858701758</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>12074619.76151227</v>
+        <v>2136.112630869366</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>1625203.412450306</v>
+        <v>79417.05834447565</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>5718381.648984801</v>
+        <v>1066.895115753165</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>19217864.51617739</v>
+        <v>542.574064409024</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>12188588.21652058</v>
+        <v>15.39594750512756</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>18826731.02170176</v>
+        <v>1975.782964001324</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>5771279.680298102</v>
+        <v>1350.729568424295</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>9607334.191722982</v>
+        <v>3866.606799598488</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>6780812.359089638</v>
+        <v>8.351516551265197</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>369086.7144717405</v>
+        <v>17960.87835696094</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>5651765.204127988</v>
+        <v>1509.782393589492</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>6891818.905150935</v>
+        <v>2469.331065112944</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>4473769.549068172</v>
+        <v>443.0953913446397</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>14133398.44901255</v>
+        <v>1661.641442471621</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>422208.6704015734</v>
+        <v>556.6481837116169</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>16429342.11457282</v>
+        <v>703.6675422751516</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>17940281.0879896</v>
+        <v>837.2540110140612</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>4063201.943750031</v>
+        <v>22.48265515902359</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>83033.47866550312</v>
+        <v>95.24537992870935</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>9996447.617191777</v>
+        <v>390.1672506822527</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>8444810.560002539</v>
+        <v>2833.1540460184</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>62721.02687571335</v>
+        <v>16941.38116638305</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>1001126.84801919</v>
+        <v>2638.745017261842</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>2547724.814685671</v>
+        <v>11477.07518517447</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>3784968.037405175</v>
+        <v>2836.1627754339</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>25620851.6745266</v>
+        <v>3.787594554452705</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>4270461.720453614</v>
+        <v>3236.944909748244</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>5001437.968755778</v>
+        <v>9296.939854124448</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>23119088.74025832</v>
+        <v>128.500594045215</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>17815291.18507601</v>
+        <v>24.24749991572817</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>795588.6540240335</v>
+        <v>1879.563237468725</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>533040.1964357415</v>
+        <v>12088.09619651968</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>20487.5287082426</v>
+        <v>945.19335825742</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>4303776.409614835</v>
+        <v>1363.387913712915</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>637289.1793126719</v>
+        <v>3114.176275965542</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>44251.3571359069</v>
+        <v>21865.77904109346</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>2702313.522305936</v>
+        <v>730.9417615688909</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>20247.99564994129</v>
+        <v>97124.56183072808</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>205069.5691992292</v>
+        <v>17620.15655122518</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>5629493.615787995</v>
+        <v>3921.62043276837</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>11437259.50579425</v>
+        <v>14774.72164709969</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>2101103.348838132</v>
+        <v>4116.92634262406</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>344537.8492848852</v>
+        <v>294604.2069274099</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>953648.7588192292</v>
+        <v>330015.7121290854</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>8667451.852863077</v>
+        <v>1434.036797928185</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>12051990.36796068</v>
+        <v>325.7675408723074</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>2231953.258517521</v>
+        <v>200824.4163108998</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>1007743.627690074</v>
+        <v>6267.148207604764</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>4362209.572973931</v>
+        <v>371835.431993112</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>16827169.12697387</v>
+        <v>2391.497548128258</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>9902409.139894856</v>
+        <v>307.0399216354635</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>7845950.592229849</v>
+        <v>2218.742062470417</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>1826315.144707799</v>
+        <v>159598.96993103</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>1090983.181383758</v>
+        <v>776.0556927011763</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>2975.199365454775</v>
+        <v>49660.91508588013</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>2544667.667406888</v>
+        <v>3618.757280619346</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>904599.6316328964</v>
+        <v>1607.80411751057</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>6072032.727029797</v>
+        <v>3486.681365751347</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>12277613.7424598</v>
+        <v>157.4152922930029</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>881054.0688423919</v>
+        <v>4390291.483208532</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>72699.97704301661</v>
+        <v>2638891.923440613</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>63697.20138785471</v>
+        <v>14498.07894253417</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>17278.73730636642</v>
+        <v>4522.817811925914</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>4068951.053852357</v>
+        <v>2878271.653332418</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>1192088.080312285</v>
+        <v>1011896.143551359</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>5132246.806023209</v>
+        <v>39324.02485057564</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>10304611.16965465</v>
+        <v>642.2134948925452</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>108938.6754669564</v>
+        <v>4107.49968354957</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>8655999.112924095</v>
+        <v>136491.8369481086</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>2907512.028552131</v>
+        <v>20811.93524377936</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>112444.7827683074</v>
+        <v>21633.83382066503</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>3289647.758074957</v>
+        <v>14806.18454479504</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>13356047.69514364</v>
+        <v>762.3684973836625</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>13986787.12795466</v>
+        <v>280.1563078841275</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>911017.57670599</v>
+        <v>200.7777088173541</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>22161404.35636855</v>
+        <v>8.208211884081528</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>4950648.399018941</v>
+        <v>3695.021374855071</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>7334.025594753159</v>
+        <v>1226.099776339194</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>19234251.99245016</v>
+        <v>312.1660886518379</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>65921.41690124301</v>
+        <v>913.2151235206306</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>780477.9586244876</v>
+        <v>129.1354709347315</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>351163.4737737323</v>
+        <v>521.9492703793171</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>1597673.568532439</v>
+        <v>4735.755346637276</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>17004820.49886567</v>
+        <v>63.25439545194264</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>3217382.109476573</v>
+        <v>201.1926132877502</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>13834387.98563829</v>
+        <v>1031.22062437612</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>99182.56787235881</v>
+        <v>12879.73256625352</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>11275914.00213917</v>
+        <v>1510.570036090903</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>24276231.68947705</v>
+        <v>7.775387131592223</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>3469649.904751618</v>
+        <v>1130.378249108836</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>754067.8486097639</v>
+        <v>3712.657659947762</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>13346615.91777354</v>
+        <v>9814.325443398162</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>1008047.364073608</v>
+        <v>513.2561594582626</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>158970.1266065175</v>
+        <v>5155.912661031666</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>11174052.70887091</v>
+        <v>51665.43315653301</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>3600630.662535358</v>
+        <v>365.9985155451831</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>1180689.539802872</v>
+        <v>8713.536055892917</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>3819632.284898591</v>
+        <v>1001.186583639211</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>599467.1527406346</v>
+        <v>60711.00524002058</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>3552738.506212072</v>
+        <v>395.6399839236788</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>18117885.61677732</v>
+        <v>59.75310305334692</v>
       </c>
       <c r="C616" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>15222855.89451039</v>
+        <v>3868.469371296782</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>10094160.40364669</v>
+        <v>3292.907689403742</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>12677847.04464396</v>
+        <v>3021.675747457985</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>22211147.32520551</v>
+        <v>46.16151646214904</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>4392652.146585332</v>
+        <v>1048.861601398023</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1144060.782169804</v>
+        <v>2918.235699435005</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>153607.779960634</v>
+        <v>136.0178822271145</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>5930124.05101689</v>
+        <v>908.6203169264792</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>3397811.262160629</v>
+        <v>3912.871992081596</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>2713305.187510473</v>
+        <v>13259.43151008522</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>901844.584205496</v>
+        <v>25674.48346891665</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>4150258.966293547</v>
+        <v>463688.7332963959</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>10082880.78353095</v>
+        <v>6088.594883301049</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>21170103.74410082</v>
+        <v>26168.6271150223</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>10741633.9369374</v>
+        <v>334835.9659555439</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>6395894.154543651</v>
+        <v>3788.414497545805</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>10618044.61447943</v>
+        <v>107796.2681197671</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>8771624.545127623</v>
+        <v>12380.04100694156</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>19267479.73460017</v>
+        <v>681.9075362998143</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>3516818.932665001</v>
+        <v>103888.5322717794</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>18241082.40736543</v>
+        <v>2617.386977803323</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>14916011.472936</v>
+        <v>20.40628466607491</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>18512996.08142777</v>
+        <v>55.50785486712972</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>27720337.11248441</v>
+        <v>0.1551596377871571</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>14856659.62912256</v>
+        <v>18009.19321955023</v>
       </c>
       <c r="C641" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>10403786.14962102</v>
+        <v>5243.040803310605</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>17879952.52533076</v>
+        <v>253.1307599236506</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>4277790.16527411</v>
+        <v>135619.2100478538</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>11347675.65648934</v>
+        <v>160128.5115139035</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>12637306.13979086</v>
+        <v>6734.692063454236</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>5680415.797923374</v>
+        <v>29375.24779960317</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>5683666.577594867</v>
+        <v>513881.1286180592</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>20341766.7974099</v>
+        <v>1024134.224987904</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>302877.3514915108</v>
+        <v>86446.44025232265</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>3738641.520512834</v>
+        <v>41024.28149081747</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>6046149.908274378</v>
+        <v>714.558266240977</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>15056857.6807077</v>
+        <v>1013732.536782488</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>17831392.25620634</v>
+        <v>52491.23978653624</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>8721619.302660573</v>
+        <v>21260.62237183056</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>761354.8824951071</v>
+        <v>10989.2027456703</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>512086.4890451594</v>
+        <v>16057.97825565096</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1814631.41809714</v>
+        <v>6672.624572404589</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>22980642.94013846</v>
+        <v>17.10664820027284</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>3769918.346505379</v>
+        <v>26001.09127599604</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>6292950.196806632</v>
+        <v>71666.97385274008</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>1348942.705981289</v>
+        <v>4354.918814594555</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>13966231.33827038</v>
+        <v>7299.799889986769</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>15158059.77998973</v>
+        <v>2651.86819353543</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>1203191.668988082</v>
+        <v>25325.69719205481</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>24949764.33329128</v>
+        <v>411.4494488542387</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>14609889.48655037</v>
+        <v>29737.74407532972</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>8958243.793699116</v>
+        <v>1829.725498947568</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>8969932.243454777</v>
+        <v>878.2019387082759</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>5721436.979082385</v>
+        <v>271635.4328596721</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1651096.797559527</v>
+        <v>786.3237638301981</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>1308342.130833462</v>
+        <v>9253.147767243419</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>2074146.424178221</v>
+        <v>20.71056366770203</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>7055186.363931616</v>
+        <v>6174.582742794833</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>2403761.61453744</v>
+        <v>1123.691279303553</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>14835474.59230941</v>
+        <v>254.0922699739116</v>
       </c>
       <c r="C676" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>8217767.904197974</v>
+        <v>12745.86598935818</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>12049372.42196005</v>
+        <v>4484.612877088006</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>4051900.710026341</v>
+        <v>11033.82978943991</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>2692289.757500374</v>
+        <v>157.3261867047031</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>4988833.297117533</v>
+        <v>1613.401394328803</v>
       </c>
       <c r="C681" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>2262132.198064638</v>
+        <v>64780.74489417371</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>3761933.825858937</v>
+        <v>9725.488781846354</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>2644102.730786511</v>
+        <v>49675.57679778321</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>113841.6044535485</v>
+        <v>602587.6948122703</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>1800299.96086838</v>
+        <v>1060867.238144781</v>
       </c>
       <c r="C686" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>1945784.574556756</v>
+        <v>212093.8064514965</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>3245132.31977472</v>
+        <v>24305.55480125911</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>4781125.820940907</v>
+        <v>109719.9902729954</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>4112365.125301993</v>
+        <v>1370898.431688642</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>17931997.28797738</v>
+        <v>3390.211584203882</v>
       </c>
       <c r="C691" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>13057958.87725383</v>
+        <v>128996.5886778262</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>1372385.516128185</v>
+        <v>149385.8462176327</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>2513114.324273122</v>
+        <v>27996.06851807913</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>1714564.385378427</v>
+        <v>57945.68068676101</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>772892.3577984835</v>
+        <v>3456.471736900955</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>23118395.64640692</v>
+        <v>72.03477810995193</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>1166402.29428671</v>
+        <v>5653.203703933835</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>88145.97556559241</v>
+        <v>7813.145709942914</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>1278978.668715504</v>
+        <v>45347.52624918407</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>299650.5958812</v>
+        <v>15373.33663720476</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>5743639.117126829</v>
+        <v>40542.2573895852</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>19368214.1555744</v>
+        <v>227.7117596836665</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>35374.16849271851</v>
+        <v>38861.10358689648</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>29862.93480025489</v>
+        <v>21604.73495997739</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>7713949.054797275</v>
+        <v>3659.829959659547</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>237420.4035817261</v>
+        <v>13776.89899769918</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>14193415.85202139</v>
+        <v>4395.414404950625</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>9489725.400769014</v>
+        <v>5194.646915832847</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>13727484.04648385</v>
+        <v>3526.131557623879</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>1684556.086357583</v>
+        <v>10401.15445863092</v>
       </c>
       <c r="C711" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>70425.25465112079</v>
+        <v>4594.052160255756</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>32218363.29617764</v>
+        <v>5221.657666107433</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>9873173.591188222</v>
+        <v>4484.632536496032</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>17471728.81390774</v>
+        <v>774.485163408116</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>8639163.157404507</v>
+        <v>3533.655604500674</v>
       </c>
       <c r="C716" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>3428321.188633771</v>
+        <v>439717.5415636544</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>3493.655317512897</v>
+        <v>829929.0626143008</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>9899763.633278435</v>
+        <v>3499965.528247448</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>11510.37996771906</v>
+        <v>961264.4640694304</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>18435663.64279394</v>
+        <v>558220.182872483</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>1889610.662162792</v>
+        <v>6681478.637773903</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>3131527.463040792</v>
+        <v>614409.2252283329</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>5510474.313777667</v>
+        <v>76754746.51032794</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>224297.6239502505</v>
+        <v>57988.95263033503</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>9869879.848747533</v>
+        <v>50654.07176911438</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>3331634.821038496</v>
+        <v>54240.24753229237</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>11945894.12891441</v>
+        <v>2258.588013504507</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>9231709.764690291</v>
+        <v>3654.791842910801</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>2956092.036938436</v>
+        <v>4507.025831134585</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>4966511.520479416</v>
+        <v>229183.169529247</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>6789806.721283306</v>
+        <v>724.0280449080892</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>14437450.21098549</v>
+        <v>275.5943178880511</v>
       </c>
       <c r="C733" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>9790375.597519225</v>
+        <v>3237.90570655399</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>5609064.430582041</v>
+        <v>8.117814891764851</v>
       </c>
       <c r="C735" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>1092987.024207026</v>
+        <v>24.12263201674238</v>
       </c>
       <c r="C736" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>6422867.180383414</v>
+        <v>52183.17032006708</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>2904998.186856333</v>
+        <v>37080.27087641384</v>
       </c>
       <c r="C738" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>55076.73298661433</v>
+        <v>1209.640331648497</v>
       </c>
       <c r="C739" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>12424562.90398486</v>
+        <v>341.0402908053426</v>
       </c>
       <c r="C740" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>372684.5479606256</v>
+        <v>86.23523606179083</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>80569.15001775883</v>
+        <v>9668.442446435833</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>446405.040779898</v>
+        <v>9.498103685649134</v>
       </c>
       <c r="C743" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>4742467.529427294</v>
+        <v>5136.581776237097</v>
       </c>
       <c r="C744" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>4154932.585044743</v>
+        <v>1439.990202368515</v>
       </c>
       <c r="C745" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>6213004.48012165</v>
+        <v>75.18924770731115</v>
       </c>
       <c r="C746" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>7972958.074652235</v>
+        <v>6764.524737810162</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>12394807.63075905</v>
+        <v>5685.63984296838</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>344814.2275649852</v>
+        <v>494.5424024510642</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>556359.5856617868</v>
+        <v>9349.907969706892</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>5285966.485558506</v>
+        <v>193307.5319654689</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>542069.3817453703</v>
+        <v>14479.61124909509</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>1586438.561090979</v>
+        <v>99545.83405841868</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>4441610.879013404</v>
+        <v>193397.7792482606</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>3876719.019227297</v>
+        <v>13.18951218695901</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>77959.00522986471</v>
+        <v>6125.931257452061</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>5100051.391600467</v>
+        <v>299204.8030612899</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>18871254.9447828</v>
+        <v>629325.9203672155</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>6281164.600283435</v>
+        <v>344811.6924169464</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>6917345.23063478</v>
+        <v>26.7266941622011</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1636743.020090128</v>
+        <v>146547.1553429365</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>933.7474882702464</v>
+        <v>63229.80155024022</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>578368.2332258357</v>
+        <v>12391132.89927097</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>6019238.272642344</v>
+        <v>10150.20733772359</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>9550341.047450488</v>
+        <v>114113.3471616638</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>203858.7481788662</v>
+        <v>17332.54580803224</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>99975.27415438944</v>
+        <v>1484258.384499285</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>8847525.753164085</v>
+        <v>95767.08048549444</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>523106.3505700806</v>
+        <v>169753.0386013624</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>10025016.80054231</v>
+        <v>951842.376562988</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>1624.515047649882</v>
+        <v>11138.1057542321</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>28538482.00806</v>
+        <v>0.1353124591196375</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>367923.8949760199</v>
+        <v>100101.1791543777</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>611762.8801779859</v>
+        <v>43407.88430231954</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>23060915.25410116</v>
+        <v>294.3814378126067</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>9623225.3900171</v>
+        <v>13425.6634516767</v>
       </c>
       <c r="C776" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>984634.9781755458</v>
+        <v>519.3268839542342</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>25323648.893162</v>
+        <v>290.0606064177105</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>3116203.700688353</v>
+        <v>23787.15713999805</v>
       </c>
       <c r="C779" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>1700637.643317692</v>
+        <v>6864.003536516433</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>27696.16908523744</v>
+        <v>1734.411193699097</v>
       </c>
       <c r="C781" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>622925.4685698915</v>
+        <v>417310.3361815754</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>1791995.705550209</v>
+        <v>118087.455762212</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>324252.033543455</v>
+        <v>913392.2691952644</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>18256.01463145454</v>
+        <v>236607.3814785142</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1368511.407908003</v>
+        <v>2057.732011350031</v>
       </c>
       <c r="C786" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>14644025.78785424</v>
+        <v>203051.1916360338</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>5765393.041497625</v>
+        <v>1418804.989086966</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>101690.8378581307</v>
+        <v>1686388.730779497</v>
       </c>
       <c r="C789" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>188605.9663657623</v>
+        <v>2115848.364029333</v>
       </c>
       <c r="C790" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>1031800.963633435</v>
+        <v>3387969.581240168</v>
       </c>
       <c r="C791" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>7119136.509381959</v>
+        <v>203855.9989138092</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1190695.570161586</v>
+        <v>193464.0709636269</v>
       </c>
       <c r="C793" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>94294.80498916523</v>
+        <v>17753955.87402149</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>301213.4963334095</v>
+        <v>9508429.397530276</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>11339033.54157603</v>
+        <v>954119.2095628132</v>
       </c>
       <c r="C796" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>65152.17454316775</v>
+        <v>8228327.866512585</v>
       </c>
       <c r="C797" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>4219007.115251669</v>
+        <v>3767913.777136001</v>
       </c>
       <c r="C798" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>216681.6434896209</v>
+        <v>82047043.4171721</v>
       </c>
       <c r="C799" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1341318.324245007</v>
+        <v>4262949.579258096</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>11367884.36715404</v>
+        <v>203427.4032350833</v>
       </c>
       <c r="C801" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>7383086.45161902</v>
+        <v>31912.48763650074</v>
       </c>
       <c r="C802" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>94787.41716927644</v>
+        <v>84945.47373907035</v>
       </c>
       <c r="C803" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>5094810.587696375</v>
+        <v>136893.3298766599</v>
       </c>
       <c r="C804" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>357.3957860853441</v>
+        <v>679764.6033400267</v>
       </c>
       <c r="C805" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>468800.5563342747</v>
+        <v>49316.9280741836</v>
       </c>
       <c r="C806" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>922734.4838269588</v>
+        <v>8719.969456319985</v>
       </c>
       <c r="C807" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>14481808.53468677</v>
+        <v>47886.99816363906</v>
       </c>
       <c r="C808" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>4034151.202356574</v>
+        <v>45124.21140706242</v>
       </c>
       <c r="C809" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>2617297.390843363</v>
+        <v>10481.02716370914</v>
       </c>
       <c r="C810" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>17244562.40747096</v>
+        <v>482942.4125707073</v>
       </c>
       <c r="C811" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>387450.526172584</v>
+        <v>135424.2827938911</v>
       </c>
       <c r="C812" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>39669926.64671083</v>
+        <v>8955.690619289811</v>
       </c>
       <c r="C813" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>43430671.83055826</v>
+        <v>72778.80164363989</v>
       </c>
       <c r="C814" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>7494578.837194039</v>
+        <v>82842.96779073231</v>
       </c>
       <c r="C815" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>8004800.557794126</v>
+        <v>134208.3044472836</v>
       </c>
       <c r="C816" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>8188111.872721938</v>
+        <v>22527.35746553672</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>308263.6213382114</v>
+        <v>41614.31189028332</v>
       </c>
       <c r="C818" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>5426220.774719943</v>
+        <v>30128.15556713817</v>
       </c>
       <c r="C819" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>3432473.70970456</v>
+        <v>10128.05023656517</v>
       </c>
       <c r="C820" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>55473.24700645296</v>
+        <v>9255.938157953236</v>
       </c>
       <c r="C821" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>12378202.97957582</v>
+        <v>162483.1794121624</v>
       </c>
       <c r="C822" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>96886.94753882434</v>
+        <v>143929.1294486733</v>
       </c>
       <c r="C823" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>25545641.12057929</v>
+        <v>89730.4649574775</v>
       </c>
       <c r="C824" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>1369976.622374925</v>
+        <v>6852.839039096581</v>
       </c>
       <c r="C825" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>730798.7400757804</v>
+        <v>40866.2846323974</v>
       </c>
       <c r="C826" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>6354670.096154348</v>
+        <v>1129837.635729986</v>
       </c>
       <c r="C827" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>2243853.039862438</v>
+        <v>231886.7924237156</v>
       </c>
       <c r="C828" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>63747.69443694317</v>
+        <v>380735.381769733</v>
       </c>
       <c r="C829" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>862594.2866577418</v>
+        <v>519.3520914663306</v>
       </c>
       <c r="C830" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>17840.70296826062</v>
+        <v>2037463.823007788</v>
       </c>
       <c r="C831" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>7116265.248805966</v>
+        <v>4463785.840587273</v>
       </c>
       <c r="C832" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>22319650.41743232</v>
+        <v>2264936.511653083</v>
       </c>
       <c r="C833" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>233308.490546213</v>
+        <v>2379.567199642315</v>
       </c>
       <c r="C834" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1384314.201579377</v>
+        <v>37827.87681981985</v>
       </c>
       <c r="C835" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>1408269.401487832</v>
+        <v>2068152.885057173</v>
       </c>
       <c r="C836" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>7522904.679131572</v>
+        <v>111549.7000533663</v>
       </c>
       <c r="C837" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>20692885.89503391</v>
+        <v>103760.369422932</v>
       </c>
       <c r="C838" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>43377643.41940364</v>
+        <v>951018.2907168582</v>
       </c>
       <c r="C839" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>19861511.43035446</v>
+        <v>69683.21871981924</v>
       </c>
       <c r="C840" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>3597968.652309601</v>
+        <v>45049.88955118256</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>324511.1771553012</v>
+        <v>109140.8809418503</v>
       </c>
       <c r="C842" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>345640.4862417749</v>
+        <v>13071.61055518033</v>
       </c>
       <c r="C843" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>853254.9865041641</v>
+        <v>617046.1869797113</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>11518989.39842566</v>
+        <v>228666.2859741189</v>
       </c>
       <c r="C845" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>991031.5237016171</v>
+        <v>31823.3225849718</v>
       </c>
       <c r="C846" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>51683837.48103909</v>
+        <v>95938.68530285152</v>
       </c>
       <c r="C847" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>616426.4555279142</v>
+        <v>1119145.522705771</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>6135591.289708991</v>
+        <v>325420.8039806297</v>
       </c>
       <c r="C849" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>1740847.35369588</v>
+        <v>3219434.068042904</v>
       </c>
       <c r="C850" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>5965699.543446117</v>
+        <v>488139.1382599748</v>
       </c>
       <c r="C851" t="inlineStr">
         <is>
